--- a/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs-institutional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F60A30-35F5-4B78-A584-8D846CEF25D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46947088-6E52-4833-BEE5-AF4F8B2B3BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutional" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Standard Deviation</t>
   </si>
@@ -138,9 +139,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>2020 YTD</t>
-  </si>
-  <si>
     <t>Sharpe Ratio</t>
   </si>
   <si>
@@ -168,7 +166,7 @@
     <t>SD S&amp;P 500 TR Index</t>
   </si>
   <si>
-    <t>BarclayHedge Est. RoR as of 01/07/21</t>
+    <t>BarclayHedge Est. RoR as of 04/07/21</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2953,7 @@
             <c:numRef>
               <c:f>[2]Institutional!$P$2:$P$106</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -3636,7 +3634,7 @@
             <c:numRef>
               <c:f>[2]Institutional!$P$2:$P$106</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -4317,7 +4315,7 @@
             <c:numRef>
               <c:f>[2]Institutional!$P$2:$P$106</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -4965,6 +4963,2293 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9867-48DF-989C-8B455FBBA755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536349000"/>
+        <c:axId val="536340472"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536349000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Trade Gothic LT Std" panose="00000500000000000000"/>
+                <a:ea typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536340472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536340472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Trade Gothic LT Std" panose="00000500000000000000"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536349000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5060618006585718E-2"/>
+          <c:y val="3.6707400100090257E-2"/>
+          <c:w val="0.86844932707024103"/>
+          <c:h val="0.82745461772889894"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tactical Program Composite (Net)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$T$2:$T$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10061.9112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10083.04121352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10092.115950612168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10078.996199876372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10118.30428505589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10123.363437198417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10161.832218259771</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10143.540920266903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10201.359103512425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10292.151199533684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10366.254688170327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10404.609830516558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10451.430574753882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10519.364873489782</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10638.233696560217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10652.063400365747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10828.887652811818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10962.082970941403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11241.616086700409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11412.488651218257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11697.800867498712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11958.661826843934</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12152.392148438807</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12315.234203227887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12497.499669435658</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12726.203913386331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12839.467128215469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12987.121000189947</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12452.051614982121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12643.813209852848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12885.310042161036</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13103.071781873556</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13371.684753401963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13267.385612325428</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13328.415586142124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13427.045861479577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13534.462228371414</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13603.48798573611</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13595.325892944667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13429.462917050743</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13512.725587136458</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13664.068113712387</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13862.197101361215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13855.266002810535</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13966.108130833019</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14089.009882384349</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14134.094714007981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14163.776312907397</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14243.093460259679</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14362.735445325859</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14427.367754829826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14502.390067154942</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14512.541740201948</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14564.786890466676</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14698.782929858971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14813.433436711872</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14921.57150079987</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15070.787215807868</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15230.53756029543</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15356.951022045881</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15449.092728178157</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15538.697466001591</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15610.175474345198</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15721.007720213051</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15865.640991239012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15849.775350247774</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15819.660777082303</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15906.668911356257</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16022.787594409159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15997.151134258103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16059.540023681709</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16120.5662757717</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16176.988257736903</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16364.641321526651</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16459.556241191505</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16624.151803603421</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16625.81421878378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16665.716172908862</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16655.716743205117</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16727.3363252009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16792.572936869183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16878.215058847218</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16972.733063176762</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16969.338516564127</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17093.214687735046</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17221.413797893059</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17192.137394436642</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17266.063585232718</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17274.696617025333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17352.432751801945</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17420.107239533972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17400.945121570487</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17418.346066692055</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17420.087901298724</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17501.962314434826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17582.471341081226</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17540.273409862632</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17606.926448820112</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17668.550691390981</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17486.564619269655</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17540.772969589394</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17586.378979310324</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17667.276322615151</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17729.111789744304</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17775.207480397639</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17830.310623586873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C655-4419-B5BF-0D4B8C6B256B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barclay CTA Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$U$2:$U$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10264.320312118196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10038.061277392108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10248.449200309902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10202.78386956434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10115.479084410461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9904.3495526936986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9862.0675984964146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9910.6070905319793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10049.643361353845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9963.5381369761726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10009.001832149666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10090.32590118285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9930.5963525833813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9809.997775173606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9738.8545937538802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9651.7616968282746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9594.4185906630446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9659.1914550262118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9710.1437388224695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9770.104689872529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9670.1276216469123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9773.3376941297738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9684.5838668986507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9691.9042634303823</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9770.7027614845993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9830.7423162322466</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9826.3097511987944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9981.1214423710189</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10207.322378711933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10141.445645030488</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10432.262238339399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10513.924645027411</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10836.134871641871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10819.091539473924</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10883.929337326403</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10718.048195002788</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10693.02146120173</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10464.253943257017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10559.446438586079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10375.206206547964</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10435.259431503888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10327.367312686538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10488.05035831325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10356.635228605188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10466.157519759437</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10647.492832538928</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10446.222938541141</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10424.121629311119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10326.560770398262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10536.292523318818</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10574.264944357132</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10397.307515777988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10349.427611291732</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10215.278439928496</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10195.521571417787</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10229.686839451268</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10129.607244663581</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10196.39304719537</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10146.134526469114</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10156.951078767399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10164.425265142234</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10060.364222194197</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10118.985492833221</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10171.5542787581</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10055.415606798329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10248.910569839214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10246.347405787488</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10300.929129880991</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10563.564588829186</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10171.824265371552</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10117.14001471598</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10140.440884722211</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10092.496046746644</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10079.618710550769</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10085.736128754224</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10161.137580051884</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10129.880648829094</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9966.2345855585845</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9953.8562119647777</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9974.2419100561783</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9916.3314902474995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9942.875617167183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10108.743089282521</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10221.617999016427</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10190.972809613982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10409.009214062133</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10494.352324328425</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10741.789929225914</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10524.857394096041</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10423.325339679044</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10460.785127907011</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10489.899253982558</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10536.706047119158</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10437.764497170438</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10612.671394508199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10626.509062835454</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10617.753294434757</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10560.044510198148</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10755.173063127999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10774.5232429425</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10660.06600660066</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10606.424109326124</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10766.867926308008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11058.272338572784</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11038.809379540005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11275.502200732655</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11305.946056674633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C655-4419-B5BF-0D4B8C6B256B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500 TR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$V$2:$V$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9398.9865116625679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9786.2483543234703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9922.1667453279333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10145.647547838471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10407.837974348146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10215.656076375952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10274.900431394954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10368.548741005703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10905.598198242953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11053.646984789395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11468.191867252901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11689.147229053333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11962.557236422652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11801.922646993071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12402.480727989338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12043.288537811233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12420.945425640264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12991.90202946072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13387.816611603783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13726.763875433679</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13252.146624603594</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13858.37659703075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13974.836674367198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14078.131339477197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14408.632867161823</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14706.262264947714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14503.440395459178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15083.670748772474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14872.154739134399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15235.404194715622</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15645.146599763193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15605.733164418616</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15137.243212360589</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16007.236836657812</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15754.071755636705</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15905.225592236551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16109.744889087617</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15797.873661723432</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16128.871997416605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15155.749310678893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14780.742065562103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16027.564564340781</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16075.216732493731</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15821.679045466215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15036.556789295446</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15016.270462279854</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16034.933883134199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16097.117685537096</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16386.177145175585</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16428.654229906195</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17034.345993657425</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17058.275579402347</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17061.463430790514</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16750.254614104389</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17370.602214107701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17713.937948679744</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18049.904364458369</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18766.632718119432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18788.492270495415</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18981.460781147805</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19248.577887075557</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19368.722623808713</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19766.997043992371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19827.524819700116</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20236.522012734869</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20708.738024856983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21343.86566311451</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21581.174288529557</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22816.777206448598</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21975.846850651262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21417.351847711812</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21499.53217245865</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22017.288918697403</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22152.793303028076</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22977.204792541288</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23725.894461418753</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23860.943438408263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22230.046948356841</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22683.053050815215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20635.003436255425</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22288.587492030405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23004.239428339621</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23451.242434028074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24400.766740359893</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22850.146144355884</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24460.549304054817</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24812.123771435228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24419.065835341295</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24875.963600533276</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25414.751885800433</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26337.282957001305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27132.217171340835</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27121.577199824496</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24888.963410090204</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21814.83965521527</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24611.37193531563</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25783.549030810413</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26296.33769696371</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27779.061198466559</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>29775.815386144062</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28644.417948017359</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27882.687068915588</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>30934.8270694124</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32124.226842536747</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>31799.894014291556</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32676.760149373655</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34107.857018655188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C655-4419-B5BF-0D4B8C6B256B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5169,6 +7454,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6240,6 +8565,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1862" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6318,6 +9159,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2965</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9316C-C8A7-4B2B-8AE6-8A36FDA1EF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9261,6 +12140,1543 @@
           </cell>
           <cell r="V106">
             <v>32124.226842536747</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Institutional"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="T1" t="str">
+            <v>Tactical Program Composite (Net)</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>Barclay CTA Index</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>S&amp;P 500 TR</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="P2">
+            <v>41030</v>
+          </cell>
+          <cell r="T2">
+            <v>10000</v>
+          </cell>
+          <cell r="U2">
+            <v>10000</v>
+          </cell>
+          <cell r="V2">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="P3">
+            <v>41060</v>
+          </cell>
+          <cell r="T3">
+            <v>9988</v>
+          </cell>
+          <cell r="U3">
+            <v>10264.320312118196</v>
+          </cell>
+          <cell r="V3">
+            <v>9398.9865116625679</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="P4">
+            <v>41090</v>
+          </cell>
+          <cell r="T4">
+            <v>10061.9112</v>
+          </cell>
+          <cell r="U4">
+            <v>10038.061277392108</v>
+          </cell>
+          <cell r="V4">
+            <v>9786.2483543234703</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="P5">
+            <v>41121</v>
+          </cell>
+          <cell r="T5">
+            <v>10083.04121352</v>
+          </cell>
+          <cell r="U5">
+            <v>10248.449200309902</v>
+          </cell>
+          <cell r="V5">
+            <v>9922.1667453279333</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>41152</v>
+          </cell>
+          <cell r="T6">
+            <v>10092.115950612168</v>
+          </cell>
+          <cell r="U6">
+            <v>10202.78386956434</v>
+          </cell>
+          <cell r="V6">
+            <v>10145.647547838471</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="P7">
+            <v>41182</v>
+          </cell>
+          <cell r="T7">
+            <v>10078.996199876372</v>
+          </cell>
+          <cell r="U7">
+            <v>10115.479084410461</v>
+          </cell>
+          <cell r="V7">
+            <v>10407.837974348146</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="P8">
+            <v>41213</v>
+          </cell>
+          <cell r="T8">
+            <v>10118.30428505589</v>
+          </cell>
+          <cell r="U8">
+            <v>9904.3495526936986</v>
+          </cell>
+          <cell r="V8">
+            <v>10215.656076375952</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="P9">
+            <v>41243</v>
+          </cell>
+          <cell r="T9">
+            <v>10123.363437198417</v>
+          </cell>
+          <cell r="U9">
+            <v>9862.0675984964146</v>
+          </cell>
+          <cell r="V9">
+            <v>10274.900431394954</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="P10">
+            <v>41274</v>
+          </cell>
+          <cell r="T10">
+            <v>10161.832218259771</v>
+          </cell>
+          <cell r="U10">
+            <v>9910.6070905319793</v>
+          </cell>
+          <cell r="V10">
+            <v>10368.548741005703</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="P11">
+            <v>41305</v>
+          </cell>
+          <cell r="T11">
+            <v>10143.540920266903</v>
+          </cell>
+          <cell r="U11">
+            <v>10049.643361353845</v>
+          </cell>
+          <cell r="V11">
+            <v>10905.598198242953</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="P12">
+            <v>41333</v>
+          </cell>
+          <cell r="T12">
+            <v>10201.359103512425</v>
+          </cell>
+          <cell r="U12">
+            <v>9963.5381369761726</v>
+          </cell>
+          <cell r="V12">
+            <v>11053.646984789395</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="P13">
+            <v>41364</v>
+          </cell>
+          <cell r="T13">
+            <v>10292.151199533684</v>
+          </cell>
+          <cell r="U13">
+            <v>10009.001832149666</v>
+          </cell>
+          <cell r="V13">
+            <v>11468.191867252901</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="P14">
+            <v>41394</v>
+          </cell>
+          <cell r="T14">
+            <v>10366.254688170327</v>
+          </cell>
+          <cell r="U14">
+            <v>10090.32590118285</v>
+          </cell>
+          <cell r="V14">
+            <v>11689.147229053333</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="P15">
+            <v>41425</v>
+          </cell>
+          <cell r="T15">
+            <v>10404.609830516558</v>
+          </cell>
+          <cell r="U15">
+            <v>9930.5963525833813</v>
+          </cell>
+          <cell r="V15">
+            <v>11962.557236422652</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="P16">
+            <v>41455</v>
+          </cell>
+          <cell r="T16">
+            <v>10451.430574753882</v>
+          </cell>
+          <cell r="U16">
+            <v>9809.997775173606</v>
+          </cell>
+          <cell r="V16">
+            <v>11801.922646993071</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="P17">
+            <v>41486</v>
+          </cell>
+          <cell r="T17">
+            <v>10519.364873489782</v>
+          </cell>
+          <cell r="U17">
+            <v>9738.8545937538802</v>
+          </cell>
+          <cell r="V17">
+            <v>12402.480727989338</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="P18">
+            <v>41517</v>
+          </cell>
+          <cell r="T18">
+            <v>10638.233696560217</v>
+          </cell>
+          <cell r="U18">
+            <v>9651.7616968282746</v>
+          </cell>
+          <cell r="V18">
+            <v>12043.288537811233</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="P19">
+            <v>41547</v>
+          </cell>
+          <cell r="T19">
+            <v>10652.063400365747</v>
+          </cell>
+          <cell r="U19">
+            <v>9594.4185906630446</v>
+          </cell>
+          <cell r="V19">
+            <v>12420.945425640264</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="P20">
+            <v>41578</v>
+          </cell>
+          <cell r="T20">
+            <v>10828.887652811818</v>
+          </cell>
+          <cell r="U20">
+            <v>9659.1914550262118</v>
+          </cell>
+          <cell r="V20">
+            <v>12991.90202946072</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="P21">
+            <v>41608</v>
+          </cell>
+          <cell r="T21">
+            <v>10962.082970941403</v>
+          </cell>
+          <cell r="U21">
+            <v>9710.1437388224695</v>
+          </cell>
+          <cell r="V21">
+            <v>13387.816611603783</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="P22">
+            <v>41639</v>
+          </cell>
+          <cell r="T22">
+            <v>11241.616086700409</v>
+          </cell>
+          <cell r="U22">
+            <v>9770.104689872529</v>
+          </cell>
+          <cell r="V22">
+            <v>13726.763875433679</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="P23">
+            <v>41670</v>
+          </cell>
+          <cell r="T23">
+            <v>11412.488651218257</v>
+          </cell>
+          <cell r="U23">
+            <v>9670.1276216469123</v>
+          </cell>
+          <cell r="V23">
+            <v>13252.146624603594</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="P24">
+            <v>41698</v>
+          </cell>
+          <cell r="T24">
+            <v>11697.800867498712</v>
+          </cell>
+          <cell r="U24">
+            <v>9773.3376941297738</v>
+          </cell>
+          <cell r="V24">
+            <v>13858.37659703075</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="P25">
+            <v>41729</v>
+          </cell>
+          <cell r="T25">
+            <v>11958.661826843934</v>
+          </cell>
+          <cell r="U25">
+            <v>9684.5838668986507</v>
+          </cell>
+          <cell r="V25">
+            <v>13974.836674367198</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="P26">
+            <v>41759</v>
+          </cell>
+          <cell r="T26">
+            <v>12152.392148438807</v>
+          </cell>
+          <cell r="U26">
+            <v>9691.9042634303823</v>
+          </cell>
+          <cell r="V26">
+            <v>14078.131339477197</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>41790</v>
+          </cell>
+          <cell r="T27">
+            <v>12315.234203227887</v>
+          </cell>
+          <cell r="U27">
+            <v>9770.7027614845993</v>
+          </cell>
+          <cell r="V27">
+            <v>14408.632867161823</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>41820</v>
+          </cell>
+          <cell r="T28">
+            <v>12497.499669435658</v>
+          </cell>
+          <cell r="U28">
+            <v>9830.7423162322466</v>
+          </cell>
+          <cell r="V28">
+            <v>14706.262264947714</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="P29">
+            <v>41851</v>
+          </cell>
+          <cell r="T29">
+            <v>12726.203913386331</v>
+          </cell>
+          <cell r="U29">
+            <v>9826.3097511987944</v>
+          </cell>
+          <cell r="V29">
+            <v>14503.440395459178</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="P30">
+            <v>41882</v>
+          </cell>
+          <cell r="T30">
+            <v>12839.467128215469</v>
+          </cell>
+          <cell r="U30">
+            <v>9981.1214423710189</v>
+          </cell>
+          <cell r="V30">
+            <v>15083.670748772474</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="P31">
+            <v>41912</v>
+          </cell>
+          <cell r="T31">
+            <v>12987.121000189947</v>
+          </cell>
+          <cell r="U31">
+            <v>10207.322378711933</v>
+          </cell>
+          <cell r="V31">
+            <v>14872.154739134399</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="P32">
+            <v>41943</v>
+          </cell>
+          <cell r="T32">
+            <v>12452.051614982121</v>
+          </cell>
+          <cell r="U32">
+            <v>10141.445645030488</v>
+          </cell>
+          <cell r="V32">
+            <v>15235.404194715622</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="P33">
+            <v>41973</v>
+          </cell>
+          <cell r="T33">
+            <v>12643.813209852848</v>
+          </cell>
+          <cell r="U33">
+            <v>10432.262238339399</v>
+          </cell>
+          <cell r="V33">
+            <v>15645.146599763193</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="P34">
+            <v>42004</v>
+          </cell>
+          <cell r="T34">
+            <v>12885.310042161036</v>
+          </cell>
+          <cell r="U34">
+            <v>10513.924645027411</v>
+          </cell>
+          <cell r="V34">
+            <v>15605.733164418616</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="P35">
+            <v>42035</v>
+          </cell>
+          <cell r="T35">
+            <v>13103.071781873556</v>
+          </cell>
+          <cell r="U35">
+            <v>10836.134871641871</v>
+          </cell>
+          <cell r="V35">
+            <v>15137.243212360589</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="P36">
+            <v>42063</v>
+          </cell>
+          <cell r="T36">
+            <v>13371.684753401963</v>
+          </cell>
+          <cell r="U36">
+            <v>10819.091539473924</v>
+          </cell>
+          <cell r="V36">
+            <v>16007.236836657812</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="P37">
+            <v>42094</v>
+          </cell>
+          <cell r="T37">
+            <v>13267.385612325428</v>
+          </cell>
+          <cell r="U37">
+            <v>10883.929337326403</v>
+          </cell>
+          <cell r="V37">
+            <v>15754.071755636705</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="P38">
+            <v>42124</v>
+          </cell>
+          <cell r="T38">
+            <v>13328.415586142124</v>
+          </cell>
+          <cell r="U38">
+            <v>10718.048195002788</v>
+          </cell>
+          <cell r="V38">
+            <v>15905.225592236551</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="P39">
+            <v>42155</v>
+          </cell>
+          <cell r="T39">
+            <v>13427.045861479577</v>
+          </cell>
+          <cell r="U39">
+            <v>10693.02146120173</v>
+          </cell>
+          <cell r="V39">
+            <v>16109.744889087617</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="P40">
+            <v>42185</v>
+          </cell>
+          <cell r="T40">
+            <v>13534.462228371414</v>
+          </cell>
+          <cell r="U40">
+            <v>10464.253943257017</v>
+          </cell>
+          <cell r="V40">
+            <v>15797.873661723432</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="P41">
+            <v>42216</v>
+          </cell>
+          <cell r="T41">
+            <v>13603.48798573611</v>
+          </cell>
+          <cell r="U41">
+            <v>10559.446438586079</v>
+          </cell>
+          <cell r="V41">
+            <v>16128.871997416605</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="P42">
+            <v>42247</v>
+          </cell>
+          <cell r="T42">
+            <v>13595.325892944667</v>
+          </cell>
+          <cell r="U42">
+            <v>10375.206206547964</v>
+          </cell>
+          <cell r="V42">
+            <v>15155.749310678893</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="P43">
+            <v>42277</v>
+          </cell>
+          <cell r="T43">
+            <v>13429.462917050743</v>
+          </cell>
+          <cell r="U43">
+            <v>10435.259431503888</v>
+          </cell>
+          <cell r="V43">
+            <v>14780.742065562103</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="P44">
+            <v>42308</v>
+          </cell>
+          <cell r="T44">
+            <v>13512.725587136458</v>
+          </cell>
+          <cell r="U44">
+            <v>10327.367312686538</v>
+          </cell>
+          <cell r="V44">
+            <v>16027.564564340781</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="P45">
+            <v>42338</v>
+          </cell>
+          <cell r="T45">
+            <v>13664.068113712387</v>
+          </cell>
+          <cell r="U45">
+            <v>10488.05035831325</v>
+          </cell>
+          <cell r="V45">
+            <v>16075.216732493731</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="P46">
+            <v>42369</v>
+          </cell>
+          <cell r="T46">
+            <v>13862.197101361215</v>
+          </cell>
+          <cell r="U46">
+            <v>10356.635228605188</v>
+          </cell>
+          <cell r="V46">
+            <v>15821.679045466215</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="P47">
+            <v>42400</v>
+          </cell>
+          <cell r="T47">
+            <v>13855.266002810535</v>
+          </cell>
+          <cell r="U47">
+            <v>10466.157519759437</v>
+          </cell>
+          <cell r="V47">
+            <v>15036.556789295446</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="P48">
+            <v>42429</v>
+          </cell>
+          <cell r="T48">
+            <v>13966.108130833019</v>
+          </cell>
+          <cell r="U48">
+            <v>10647.492832538928</v>
+          </cell>
+          <cell r="V48">
+            <v>15016.270462279854</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="P49">
+            <v>42460</v>
+          </cell>
+          <cell r="T49">
+            <v>14089.009882384349</v>
+          </cell>
+          <cell r="U49">
+            <v>10446.222938541141</v>
+          </cell>
+          <cell r="V49">
+            <v>16034.933883134199</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="P50">
+            <v>42490</v>
+          </cell>
+          <cell r="T50">
+            <v>14134.094714007981</v>
+          </cell>
+          <cell r="U50">
+            <v>10424.121629311119</v>
+          </cell>
+          <cell r="V50">
+            <v>16097.117685537096</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="P51">
+            <v>42521</v>
+          </cell>
+          <cell r="T51">
+            <v>14163.776312907397</v>
+          </cell>
+          <cell r="U51">
+            <v>10326.560770398262</v>
+          </cell>
+          <cell r="V51">
+            <v>16386.177145175585</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="P52">
+            <v>42551</v>
+          </cell>
+          <cell r="T52">
+            <v>14243.093460259679</v>
+          </cell>
+          <cell r="U52">
+            <v>10536.292523318818</v>
+          </cell>
+          <cell r="V52">
+            <v>16428.654229906195</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="P53">
+            <v>42582</v>
+          </cell>
+          <cell r="T53">
+            <v>14362.735445325859</v>
+          </cell>
+          <cell r="U53">
+            <v>10574.264944357132</v>
+          </cell>
+          <cell r="V53">
+            <v>17034.345993657425</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="P54">
+            <v>42613</v>
+          </cell>
+          <cell r="T54">
+            <v>14427.367754829826</v>
+          </cell>
+          <cell r="U54">
+            <v>10397.307515777988</v>
+          </cell>
+          <cell r="V54">
+            <v>17058.275579402347</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="P55">
+            <v>42643</v>
+          </cell>
+          <cell r="T55">
+            <v>14502.390067154942</v>
+          </cell>
+          <cell r="U55">
+            <v>10349.427611291732</v>
+          </cell>
+          <cell r="V55">
+            <v>17061.463430790514</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="P56">
+            <v>42674</v>
+          </cell>
+          <cell r="T56">
+            <v>14512.541740201948</v>
+          </cell>
+          <cell r="U56">
+            <v>10215.278439928496</v>
+          </cell>
+          <cell r="V56">
+            <v>16750.254614104389</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="P57">
+            <v>42704</v>
+          </cell>
+          <cell r="T57">
+            <v>14564.786890466676</v>
+          </cell>
+          <cell r="U57">
+            <v>10195.521571417787</v>
+          </cell>
+          <cell r="V57">
+            <v>17370.602214107701</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="P58">
+            <v>42735</v>
+          </cell>
+          <cell r="T58">
+            <v>14698.782929858971</v>
+          </cell>
+          <cell r="U58">
+            <v>10229.686839451268</v>
+          </cell>
+          <cell r="V58">
+            <v>17713.937948679744</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="P59">
+            <v>42766</v>
+          </cell>
+          <cell r="T59">
+            <v>14813.433436711872</v>
+          </cell>
+          <cell r="U59">
+            <v>10129.607244663581</v>
+          </cell>
+          <cell r="V59">
+            <v>18049.904364458369</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="P60">
+            <v>42794</v>
+          </cell>
+          <cell r="T60">
+            <v>14921.57150079987</v>
+          </cell>
+          <cell r="U60">
+            <v>10196.39304719537</v>
+          </cell>
+          <cell r="V60">
+            <v>18766.632718119432</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="P61">
+            <v>42825</v>
+          </cell>
+          <cell r="T61">
+            <v>15070.787215807868</v>
+          </cell>
+          <cell r="U61">
+            <v>10146.134526469114</v>
+          </cell>
+          <cell r="V61">
+            <v>18788.492270495415</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="P62">
+            <v>42855</v>
+          </cell>
+          <cell r="T62">
+            <v>15230.53756029543</v>
+          </cell>
+          <cell r="U62">
+            <v>10156.951078767399</v>
+          </cell>
+          <cell r="V62">
+            <v>18981.460781147805</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="P63">
+            <v>42886</v>
+          </cell>
+          <cell r="T63">
+            <v>15356.951022045881</v>
+          </cell>
+          <cell r="U63">
+            <v>10164.425265142234</v>
+          </cell>
+          <cell r="V63">
+            <v>19248.577887075557</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="P64">
+            <v>42916</v>
+          </cell>
+          <cell r="T64">
+            <v>15449.092728178157</v>
+          </cell>
+          <cell r="U64">
+            <v>10060.364222194197</v>
+          </cell>
+          <cell r="V64">
+            <v>19368.722623808713</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="P65">
+            <v>42947</v>
+          </cell>
+          <cell r="T65">
+            <v>15538.697466001591</v>
+          </cell>
+          <cell r="U65">
+            <v>10118.985492833221</v>
+          </cell>
+          <cell r="V65">
+            <v>19766.997043992371</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="P66">
+            <v>42978</v>
+          </cell>
+          <cell r="T66">
+            <v>15610.175474345198</v>
+          </cell>
+          <cell r="U66">
+            <v>10171.5542787581</v>
+          </cell>
+          <cell r="V66">
+            <v>19827.524819700116</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="P67">
+            <v>43008</v>
+          </cell>
+          <cell r="T67">
+            <v>15721.007720213051</v>
+          </cell>
+          <cell r="U67">
+            <v>10055.415606798329</v>
+          </cell>
+          <cell r="V67">
+            <v>20236.522012734869</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="P68">
+            <v>43039</v>
+          </cell>
+          <cell r="T68">
+            <v>15865.640991239012</v>
+          </cell>
+          <cell r="U68">
+            <v>10248.910569839214</v>
+          </cell>
+          <cell r="V68">
+            <v>20708.738024856983</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="P69">
+            <v>43069</v>
+          </cell>
+          <cell r="T69">
+            <v>15849.775350247774</v>
+          </cell>
+          <cell r="U69">
+            <v>10246.347405787488</v>
+          </cell>
+          <cell r="V69">
+            <v>21343.86566311451</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="P70">
+            <v>43100</v>
+          </cell>
+          <cell r="T70">
+            <v>15819.660777082303</v>
+          </cell>
+          <cell r="U70">
+            <v>10300.929129880991</v>
+          </cell>
+          <cell r="V70">
+            <v>21581.174288529557</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="P71">
+            <v>43131</v>
+          </cell>
+          <cell r="T71">
+            <v>15906.668911356257</v>
+          </cell>
+          <cell r="U71">
+            <v>10563.564588829186</v>
+          </cell>
+          <cell r="V71">
+            <v>22816.777206448598</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="P72">
+            <v>43159</v>
+          </cell>
+          <cell r="T72">
+            <v>16022.787594409159</v>
+          </cell>
+          <cell r="U72">
+            <v>10171.824265371552</v>
+          </cell>
+          <cell r="V72">
+            <v>21975.846850651262</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="P73">
+            <v>43190</v>
+          </cell>
+          <cell r="T73">
+            <v>15997.151134258103</v>
+          </cell>
+          <cell r="U73">
+            <v>10117.14001471598</v>
+          </cell>
+          <cell r="V73">
+            <v>21417.351847711812</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="P74">
+            <v>43220</v>
+          </cell>
+          <cell r="T74">
+            <v>16059.540023681709</v>
+          </cell>
+          <cell r="U74">
+            <v>10140.440884722211</v>
+          </cell>
+          <cell r="V74">
+            <v>21499.53217245865</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="P75">
+            <v>43251</v>
+          </cell>
+          <cell r="T75">
+            <v>16120.5662757717</v>
+          </cell>
+          <cell r="U75">
+            <v>10092.496046746644</v>
+          </cell>
+          <cell r="V75">
+            <v>22017.288918697403</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="P76">
+            <v>43281</v>
+          </cell>
+          <cell r="T76">
+            <v>16176.988257736903</v>
+          </cell>
+          <cell r="U76">
+            <v>10079.618710550769</v>
+          </cell>
+          <cell r="V76">
+            <v>22152.793303028076</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="P77">
+            <v>43312</v>
+          </cell>
+          <cell r="T77">
+            <v>16364.641321526651</v>
+          </cell>
+          <cell r="U77">
+            <v>10085.736128754224</v>
+          </cell>
+          <cell r="V77">
+            <v>22977.204792541288</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="P78">
+            <v>43343</v>
+          </cell>
+          <cell r="T78">
+            <v>16459.556241191505</v>
+          </cell>
+          <cell r="U78">
+            <v>10161.137580051884</v>
+          </cell>
+          <cell r="V78">
+            <v>23725.894461418753</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="P79">
+            <v>43373</v>
+          </cell>
+          <cell r="T79">
+            <v>16624.151803603421</v>
+          </cell>
+          <cell r="U79">
+            <v>10129.880648829094</v>
+          </cell>
+          <cell r="V79">
+            <v>23860.943438408263</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="P80">
+            <v>43404</v>
+          </cell>
+          <cell r="T80">
+            <v>16625.81421878378</v>
+          </cell>
+          <cell r="U80">
+            <v>9966.2345855585845</v>
+          </cell>
+          <cell r="V80">
+            <v>22230.046948356841</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="P81">
+            <v>43434</v>
+          </cell>
+          <cell r="T81">
+            <v>16665.716172908862</v>
+          </cell>
+          <cell r="U81">
+            <v>9953.8562119647777</v>
+          </cell>
+          <cell r="V81">
+            <v>22683.053050815215</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="P82">
+            <v>43465</v>
+          </cell>
+          <cell r="T82">
+            <v>16655.716743205117</v>
+          </cell>
+          <cell r="U82">
+            <v>9974.2419100561783</v>
+          </cell>
+          <cell r="V82">
+            <v>20635.003436255425</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="P83">
+            <v>43496</v>
+          </cell>
+          <cell r="T83">
+            <v>16727.3363252009</v>
+          </cell>
+          <cell r="U83">
+            <v>9916.3314902474995</v>
+          </cell>
+          <cell r="V83">
+            <v>22288.587492030405</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="P84">
+            <v>43524</v>
+          </cell>
+          <cell r="T84">
+            <v>16792.572936869183</v>
+          </cell>
+          <cell r="U84">
+            <v>9942.875617167183</v>
+          </cell>
+          <cell r="V84">
+            <v>23004.239428339621</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="P85">
+            <v>43555</v>
+          </cell>
+          <cell r="T85">
+            <v>16878.215058847218</v>
+          </cell>
+          <cell r="U85">
+            <v>10108.743089282521</v>
+          </cell>
+          <cell r="V85">
+            <v>23451.242434028074</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="P86">
+            <v>43585</v>
+          </cell>
+          <cell r="T86">
+            <v>16972.733063176762</v>
+          </cell>
+          <cell r="U86">
+            <v>10221.617999016427</v>
+          </cell>
+          <cell r="V86">
+            <v>24400.766740359893</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="P87">
+            <v>43616</v>
+          </cell>
+          <cell r="T87">
+            <v>16969.338516564127</v>
+          </cell>
+          <cell r="U87">
+            <v>10190.972809613982</v>
+          </cell>
+          <cell r="V87">
+            <v>22850.146144355884</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="P88">
+            <v>43646</v>
+          </cell>
+          <cell r="T88">
+            <v>17093.214687735046</v>
+          </cell>
+          <cell r="U88">
+            <v>10409.009214062133</v>
+          </cell>
+          <cell r="V88">
+            <v>24460.549304054817</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="P89">
+            <v>43677</v>
+          </cell>
+          <cell r="T89">
+            <v>17221.413797893059</v>
+          </cell>
+          <cell r="U89">
+            <v>10494.352324328425</v>
+          </cell>
+          <cell r="V89">
+            <v>24812.123771435228</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="P90">
+            <v>43708</v>
+          </cell>
+          <cell r="T90">
+            <v>17192.137394436642</v>
+          </cell>
+          <cell r="U90">
+            <v>10741.789929225914</v>
+          </cell>
+          <cell r="V90">
+            <v>24419.065835341295</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="P91">
+            <v>43738</v>
+          </cell>
+          <cell r="T91">
+            <v>17266.063585232718</v>
+          </cell>
+          <cell r="U91">
+            <v>10524.857394096041</v>
+          </cell>
+          <cell r="V91">
+            <v>24875.963600533276</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="P92">
+            <v>43769</v>
+          </cell>
+          <cell r="T92">
+            <v>17274.696617025333</v>
+          </cell>
+          <cell r="U92">
+            <v>10423.325339679044</v>
+          </cell>
+          <cell r="V92">
+            <v>25414.751885800433</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="P93">
+            <v>43799</v>
+          </cell>
+          <cell r="T93">
+            <v>17352.432751801945</v>
+          </cell>
+          <cell r="U93">
+            <v>10460.785127907011</v>
+          </cell>
+          <cell r="V93">
+            <v>26337.282957001305</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="P94">
+            <v>43830</v>
+          </cell>
+          <cell r="T94">
+            <v>17420.107239533972</v>
+          </cell>
+          <cell r="U94">
+            <v>10489.899253982558</v>
+          </cell>
+          <cell r="V94">
+            <v>27132.217171340835</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="P95">
+            <v>43861</v>
+          </cell>
+          <cell r="T95">
+            <v>17400.945121570487</v>
+          </cell>
+          <cell r="U95">
+            <v>10536.706047119158</v>
+          </cell>
+          <cell r="V95">
+            <v>27121.577199824496</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="P96">
+            <v>43890</v>
+          </cell>
+          <cell r="T96">
+            <v>17418.346066692055</v>
+          </cell>
+          <cell r="U96">
+            <v>10437.764497170438</v>
+          </cell>
+          <cell r="V96">
+            <v>24888.963410090204</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="P97">
+            <v>43921</v>
+          </cell>
+          <cell r="T97">
+            <v>17420.087901298724</v>
+          </cell>
+          <cell r="U97">
+            <v>10612.671394508199</v>
+          </cell>
+          <cell r="V97">
+            <v>21814.83965521527</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="P98">
+            <v>43951</v>
+          </cell>
+          <cell r="T98">
+            <v>17501.962314434826</v>
+          </cell>
+          <cell r="U98">
+            <v>10626.509062835454</v>
+          </cell>
+          <cell r="V98">
+            <v>24611.37193531563</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="P99">
+            <v>43982</v>
+          </cell>
+          <cell r="T99">
+            <v>17582.471341081226</v>
+          </cell>
+          <cell r="U99">
+            <v>10617.753294434757</v>
+          </cell>
+          <cell r="V99">
+            <v>25783.549030810413</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="P100">
+            <v>44012</v>
+          </cell>
+          <cell r="T100">
+            <v>17540.273409862632</v>
+          </cell>
+          <cell r="U100">
+            <v>10560.044510198148</v>
+          </cell>
+          <cell r="V100">
+            <v>26296.33769696371</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="P101">
+            <v>44043</v>
+          </cell>
+          <cell r="T101">
+            <v>17606.926448820112</v>
+          </cell>
+          <cell r="U101">
+            <v>10755.173063127999</v>
+          </cell>
+          <cell r="V101">
+            <v>27779.061198466559</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="P102">
+            <v>44074</v>
+          </cell>
+          <cell r="T102">
+            <v>17668.550691390981</v>
+          </cell>
+          <cell r="U102">
+            <v>10774.5232429425</v>
+          </cell>
+          <cell r="V102">
+            <v>29775.815386144062</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="P103">
+            <v>44104</v>
+          </cell>
+          <cell r="T103">
+            <v>17486.564619269655</v>
+          </cell>
+          <cell r="U103">
+            <v>10660.06600660066</v>
+          </cell>
+          <cell r="V103">
+            <v>28644.417948017359</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="P104">
+            <v>44135</v>
+          </cell>
+          <cell r="T104">
+            <v>17540.772969589394</v>
+          </cell>
+          <cell r="U104">
+            <v>10606.424109326124</v>
+          </cell>
+          <cell r="V104">
+            <v>27882.687068915588</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="P105">
+            <v>44165</v>
+          </cell>
+          <cell r="T105">
+            <v>17586.378979310324</v>
+          </cell>
+          <cell r="U105">
+            <v>10766.867926308008</v>
+          </cell>
+          <cell r="V105">
+            <v>30934.8270694124</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="P106">
+            <v>44196</v>
+          </cell>
+          <cell r="T106">
+            <v>17667.276322615151</v>
+          </cell>
+          <cell r="U106">
+            <v>11058.272338572784</v>
+          </cell>
+          <cell r="V106">
+            <v>32124.226842536747</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="P107">
+            <v>44227</v>
+          </cell>
+          <cell r="T107">
+            <v>17729.111789744304</v>
+          </cell>
+          <cell r="U107">
+            <v>11038.809379540005</v>
+          </cell>
+          <cell r="V107">
+            <v>31799.894014291556</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="P108">
+            <v>44255</v>
+          </cell>
+          <cell r="T108">
+            <v>17775.207480397639</v>
+          </cell>
+          <cell r="U108">
+            <v>11275.502200732655</v>
+          </cell>
+          <cell r="V108">
+            <v>32676.760149373655</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="P109">
+            <v>44286</v>
+          </cell>
+          <cell r="T109">
+            <v>17830.310623586873</v>
+          </cell>
+          <cell r="U109">
+            <v>11305.946056674633</v>
+          </cell>
+          <cell r="V109">
+            <v>34107.857018655188</v>
           </cell>
         </row>
       </sheetData>
@@ -9566,36 +13982,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA107"/>
+  <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1"/>
-    <col min="15" max="15" width="3.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="8.6640625" style="1"/>
-    <col min="27" max="27" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="3.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" style="1"/>
+    <col min="27" max="27" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="32.4">
+    <row r="1" spans="1:27" ht="33.75">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>16</v>
@@ -9652,41 +14068,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="22.2" thickBot="1">
+    <row r="2" spans="1:27" ht="23.25" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="28">
         <f>L25*100</f>
-        <v>0.45999999999999375</v>
+        <v>0.31000000000001027</v>
       </c>
       <c r="C2" s="29">
         <f>L26*100</f>
-        <v>1.0334317075999966</v>
+        <v>0.92280382100000669</v>
       </c>
       <c r="D2" s="29">
         <f>L27*100</f>
-        <v>0.72406461281901979</v>
+        <v>1.9657720758851749</v>
       </c>
       <c r="E2" s="29">
         <f>L28*100</f>
-        <v>1.4188723392026148</v>
+        <v>0.92280382100000669</v>
       </c>
       <c r="F2" s="29">
         <f>L29*100</f>
-        <v>1.4188723392026148</v>
+        <v>2.3548831935432668</v>
       </c>
       <c r="G2" s="29">
         <f>L30*100</f>
-        <v>3.7506465132370881</v>
+        <v>3.6824904580594842</v>
       </c>
       <c r="H2" s="29">
         <f>L31*100</f>
-        <v>4.9705581395163678</v>
+        <v>4.8227832951297955</v>
       </c>
       <c r="I2" s="30">
         <f>L32*100</f>
-        <v>6.7872910073521586</v>
+        <v>6.7007210584686616</v>
       </c>
       <c r="P2" s="4">
         <v>41030</v>
@@ -9702,41 +14118,41 @@
       </c>
       <c r="AA2" s="35"/>
     </row>
-    <row r="3" spans="1:27" ht="11.4" thickBot="1">
+    <row r="3" spans="1:27" ht="12" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6">
         <f>M25*100</f>
-        <v>1.5700000000000047</v>
+        <v>0.26999999999999247</v>
       </c>
       <c r="C3" s="7">
         <f>M26*100</f>
-        <v>2.5885927135999909</v>
+        <v>2.2397144012987313</v>
       </c>
       <c r="D3" s="7">
         <f>M27*100</f>
-        <v>4.2135742123140751</v>
+        <v>6.058874773139733</v>
       </c>
       <c r="E3" s="7">
         <f>M28*100</f>
-        <v>4.9506768027878234</v>
+        <v>2.2397144012987313</v>
       </c>
       <c r="F3" s="7">
         <f>M29*100</f>
-        <v>4.9506768027878234</v>
+        <v>6.5325179344117412</v>
       </c>
       <c r="G3" s="7">
         <f>M30*100</f>
-        <v>2.2413841873446527</v>
+        <v>3.7726839926761846</v>
       </c>
       <c r="H3" s="7">
         <f>M31*100</f>
-        <v>1.2296128996412969</v>
+        <v>1.5943424489684332</v>
       </c>
       <c r="I3" s="8">
         <f>M32*100</f>
-        <v>1.1155770636882334</v>
+        <v>1.3860830710075822</v>
       </c>
       <c r="P3" s="4">
         <f>EOMONTH(P2,0)</f>
@@ -9782,35 +14198,35 @@
       </c>
       <c r="B4" s="11">
         <f>N25*100</f>
-        <v>3.8448567061827754</v>
+        <v>4.3795555701961586</v>
       </c>
       <c r="C4" s="12">
         <f>N26*100</f>
-        <v>12.148296749594966</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="D4" s="12">
         <f>N27*100</f>
-        <v>22.162360450086371</v>
+        <v>19.073311528105208</v>
       </c>
       <c r="E4" s="12">
         <f>N28*100</f>
-        <v>18.398826898926867</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="F4" s="12">
         <f>N29*100</f>
-        <v>18.398826898926867</v>
+        <v>56.351628330676398</v>
       </c>
       <c r="G4" s="12">
         <f>N30*100</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="H4" s="12">
         <f>N31*100</f>
-        <v>15.216856682870006</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="I4" s="13">
         <f>N32*100</f>
-        <v>14.414401804702637</v>
+        <v>14.751765420222362</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:P67" si="1">EOMONTH(P3,1)</f>
@@ -9932,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="21.6">
+    <row r="7" spans="1:27" ht="22.5">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>17</v>
@@ -9987,15 +14403,15 @@
       </c>
       <c r="B8" s="20">
         <f>I2/100</f>
-        <v>6.7872910073521586E-2</v>
+        <v>6.7007210584686616E-2</v>
       </c>
       <c r="C8" s="38">
         <f>I3/100</f>
-        <v>1.1155770636882334E-2</v>
+        <v>1.3860830710075822E-2</v>
       </c>
       <c r="D8" s="38">
         <f>I4/100</f>
-        <v>0.14414401804702637</v>
+        <v>0.14751765420222362</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
@@ -10040,16 +14456,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="23">
-        <f>STDEV(Q3:Q106)*SQRT(12)</f>
-        <v>2.7732988043847322E-2</v>
+        <f>STDEV(Q3:Q109)*SQRT(12)</f>
+        <v>2.7374855857228174E-2</v>
       </c>
       <c r="C9" s="23">
-        <f>STDEV(R3:R106)*SQRT(12)</f>
-        <v>4.3430698477811717E-2</v>
+        <f>STDEV(R3:R109)*SQRT(12)</f>
+        <v>4.4124362897583147E-2</v>
       </c>
       <c r="D9" s="23">
-        <f>STDEV(S3:S106)*SQRT(12)</f>
-        <v>0.13425979383323797</v>
+        <f>STDEV(S3:S109)*SQRT(12)</f>
+        <v>0.13308594288596268</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
@@ -10227,26 +14643,26 @@
       </c>
       <c r="G13" s="1">
         <f>VLOOKUP($K$21,$P:$V,5,0)</f>
-        <v>17667.276322615151</v>
+        <v>17830.310623586873</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="4">
         <f>EOMONTH(K21,-1)</f>
-        <v>44165</v>
+        <v>44255</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ref="L13:L21" si="2">VLOOKUP($K13,$P:$V,5,0)</f>
-        <v>17586.378979310324</v>
+        <v>17775.207480397639</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ref="M13:M21" si="3">VLOOKUP($K13,$P:$V,6,0)</f>
-        <v>10839.04722160607</v>
+        <v>11275.502200732655</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ref="N13:N21" si="4">VLOOKUP($K13,$P:$V,7,0)</f>
-        <v>30934.8270694124</v>
+        <v>32676.760149373655</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
@@ -10292,26 +14708,26 @@
       </c>
       <c r="G14" s="1">
         <f>VLOOKUP($K$21,$P:$V,6,0)</f>
-        <v>11009.220262985285</v>
+        <v>11305.946056674633</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="4">
         <f>EOMONTH(K21,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>17486.564619269655</v>
+        <v>17667.276322615151</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>10731.427317382249</v>
+        <v>11058.272338572784</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>28644.417948017359</v>
+        <v>32124.226842536747</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
@@ -10357,26 +14773,26 @@
       </c>
       <c r="G15" s="1">
         <f>VLOOKUP($K$21,$P:$V,7,0)</f>
-        <v>32124.226842536747</v>
+        <v>34107.857018655188</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="4">
         <f>EOMONTH(K21,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="2"/>
-        <v>17540.273409862632</v>
+        <v>17486.564619269655</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>10564.094309399874</v>
+        <v>10660.06600660066</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="4"/>
-        <v>26296.33769696371</v>
+        <v>28644.417948017359</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
@@ -10421,19 +14837,19 @@
         <v>5</v>
       </c>
       <c r="K16" s="25">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="2"/>
-        <v>17420.107239533972</v>
+        <v>17667.276322615151</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>10489.899253982558</v>
+        <v>11058.272338572784</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="4"/>
-        <v>27132.217171340835</v>
+        <v>32124.226842536747</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
@@ -10479,19 +14895,19 @@
       </c>
       <c r="K17" s="4">
         <f>EOMONTH(K21,-1*12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="2"/>
-        <v>17420.107239533972</v>
+        <v>17420.087901298724</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>10489.899253982558</v>
+        <v>10612.671394508199</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="4"/>
-        <v>27132.217171340835</v>
+        <v>21814.83965521527</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
@@ -10537,19 +14953,19 @@
       </c>
       <c r="K18" s="4">
         <f>EOMONTH(K21,-3*12)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="2"/>
-        <v>15819.660777082303</v>
+        <v>15997.151134258103</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>10300.929129880991</v>
+        <v>10117.14001471598</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="4"/>
-        <v>21581.174288529557</v>
+        <v>21417.351847711812</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
@@ -10595,19 +15011,19 @@
       </c>
       <c r="K19" s="4">
         <f>EOMONTH(K21,-5*12)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="2"/>
-        <v>13862.197101361215</v>
+        <v>14089.009882384349</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>10356.635228605188</v>
+        <v>10446.222938541141</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="4"/>
-        <v>15821.679045466215</v>
+        <v>16034.933883134199</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
@@ -10709,19 +15125,19 @@
         <v>4</v>
       </c>
       <c r="K21" s="25">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="2"/>
-        <v>17667.276322615151</v>
+        <v>17830.310623586873</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="3"/>
-        <v>11009.220262985285</v>
+        <v>11305.946056674633</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>32124.226842536747</v>
+        <v>34107.857018655188</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
@@ -10897,15 +15313,15 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" ref="L25:N29" si="6">L$21/L13-1</f>
-        <v>4.5999999999999375E-3</v>
+        <v>3.1000000000001027E-3</v>
       </c>
       <c r="M25" s="26">
         <f t="shared" si="6"/>
-        <v>1.5700000000000047E-2</v>
+        <v>2.6999999999999247E-3</v>
       </c>
       <c r="N25" s="26">
         <f t="shared" si="6"/>
-        <v>3.8448567061827754E-2</v>
+        <v>4.3795555701961586E-2</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="4">
@@ -10946,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="21.6">
+    <row r="26" spans="1:25" ht="22.5">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
         <v>17</v>
@@ -10962,15 +15378,15 @@
       </c>
       <c r="L26" s="26">
         <f t="shared" si="6"/>
-        <v>1.0334317075999966E-2</v>
+        <v>9.2280382100000669E-3</v>
       </c>
       <c r="M26" s="26">
         <f t="shared" si="6"/>
-        <v>2.5885927135999909E-2</v>
+        <v>2.2397144012987313E-2</v>
       </c>
       <c r="N26" s="26">
         <f t="shared" si="6"/>
-        <v>0.12148296749594967</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="4">
@@ -11017,30 +15433,30 @@
       </c>
       <c r="B27" s="19">
         <f>B8/B9</f>
-        <v>2.4473709780644959</v>
+        <v>2.4477648735086852</v>
       </c>
       <c r="C27" s="37">
         <f>C8/C9</f>
-        <v>0.25686371686105158</v>
+        <v>0.31413101062213933</v>
       </c>
       <c r="D27" s="37">
         <f>D8/D9</f>
-        <v>1.0736201354968968</v>
+        <v>1.1084390357336766</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="6"/>
-        <v>7.2406461281901979E-3</v>
+        <v>1.9657720758851749E-2</v>
       </c>
       <c r="M27" s="26">
         <f t="shared" si="6"/>
-        <v>4.2135742123140751E-2</v>
+        <v>6.058874773139733E-2</v>
       </c>
       <c r="N27" s="26">
         <f t="shared" si="6"/>
-        <v>0.22162360450086371</v>
+        <v>0.19073311528105208</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="4">
@@ -11086,31 +15502,31 @@
         <v>20</v>
       </c>
       <c r="B28" s="39">
-        <f>COUNTIF(Q3:Q106,"&gt;0")/COUNTA(Q3:Q106)</f>
-        <v>0.83653846153846156</v>
+        <f>COUNTIF(Q3:Q109,"&gt;0")/COUNTA(Q3:Q109)</f>
+        <v>0.84112149532710279</v>
       </c>
       <c r="C28" s="39">
-        <f>COUNTIF(R3:R106,"&gt;0")/COUNTA(R3:R106)</f>
-        <v>0.51923076923076927</v>
+        <f>COUNTIF(R3:R109,"&gt;0")/COUNTA(R3:R109)</f>
+        <v>0.52336448598130836</v>
       </c>
       <c r="D28" s="39">
-        <f>COUNTIF(S3:S106,"&gt;0")/COUNTA(S3:S106)</f>
-        <v>0.73076923076923073</v>
+        <f>COUNTIF(S3:S109,"&gt;0")/COUNTA(S3:S109)</f>
+        <v>0.7289719626168224</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="6"/>
-        <v>1.4188723392026148E-2</v>
+        <v>9.2280382100000669E-3</v>
       </c>
       <c r="M28" s="26">
         <f t="shared" si="6"/>
-        <v>4.9506768027878234E-2</v>
+        <v>2.2397144012987313E-2</v>
       </c>
       <c r="N28" s="26">
         <f t="shared" si="6"/>
-        <v>0.18398826898926868</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="4">
@@ -11172,15 +15588,15 @@
       </c>
       <c r="L29" s="26">
         <f t="shared" si="6"/>
-        <v>1.4188723392026148E-2</v>
+        <v>2.3548831935432668E-2</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" si="6"/>
-        <v>4.9506768027878234E-2</v>
+        <v>6.5325179344117412E-2</v>
       </c>
       <c r="N29" s="26">
         <f t="shared" si="6"/>
-        <v>0.18398826898926868</v>
+        <v>0.56351628330676395</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="4">
@@ -11227,15 +15643,15 @@
       </c>
       <c r="L30" s="26">
         <f>(L$21/L18)^(1/3)-1</f>
-        <v>3.7506465132370881E-2</v>
+        <v>3.6824904580594842E-2</v>
       </c>
       <c r="M30" s="26">
         <f>(M$21/M18)^(1/3)-1</f>
-        <v>2.2413841873446527E-2</v>
+        <v>3.7726839926761846E-2</v>
       </c>
       <c r="N30" s="26">
         <f>(N$21/N18)^(1/3)-1</f>
-        <v>0.14178904188562003</v>
+        <v>0.1677849863795664</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="4">
@@ -11276,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="21.6">
+    <row r="31" spans="1:25" ht="22.5">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
         <v>17</v>
@@ -11292,15 +15708,15 @@
       </c>
       <c r="L31" s="26">
         <f>(L$21/L19)^(1/5)-1</f>
-        <v>4.9705581395163678E-2</v>
+        <v>4.8227832951297955E-2</v>
       </c>
       <c r="M31" s="26">
         <f>(M$21/M19)^(1/5)-1</f>
-        <v>1.2296128996412969E-2</v>
+        <v>1.5943424489684332E-2</v>
       </c>
       <c r="N31" s="26">
         <f>(N$21/N19)^(1/5)-1</f>
-        <v>0.15216856682870006</v>
+        <v>0.16294038412866563</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="4">
@@ -11346,7 +15762,7 @@
         <v>2012</v>
       </c>
       <c r="B32" s="42">
-        <f t="shared" ref="B32:D40" si="7">L47</f>
+        <f t="shared" ref="B32:D40" si="7">L48</f>
         <v>1.6183221825977201E-2</v>
       </c>
       <c r="C32" s="42">
@@ -11362,15 +15778,15 @@
       </c>
       <c r="L32" s="26">
         <f>(L$21/L20)^(12/(COUNTA($P:$P)-2))-1</f>
-        <v>6.7872910073521586E-2</v>
+        <v>6.7007210584686616E-2</v>
       </c>
       <c r="M32" s="26">
         <f>(M$21/M20)^(12/(COUNTA($P:$P)-2))-1</f>
-        <v>1.1155770636882334E-2</v>
+        <v>1.3860830710075822E-2</v>
       </c>
       <c r="N32" s="26">
         <f>(N$21/N20)^(12/(COUNTA($P:$P)-2))-1</f>
-        <v>0.14414401804702637</v>
+        <v>0.14751765420222362</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="4">
@@ -11550,15 +15966,15 @@
         <v>41030</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L44" si="8">VLOOKUP($K35,$P:$V,5,0)</f>
+        <f t="shared" ref="L35:L45" si="8">VLOOKUP($K35,$P:$V,5,0)</f>
         <v>10000</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" ref="M35:M44" si="9">VLOOKUP($K35,$P:$V,6,0)</f>
+        <f t="shared" ref="M35:M45" si="9">VLOOKUP($K35,$P:$V,6,0)</f>
         <v>10000</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ref="N35:N44" si="10">VLOOKUP($K35,$P:$V,7,0)</f>
+        <f t="shared" ref="N35:N45" si="10">VLOOKUP($K35,$P:$V,7,0)</f>
         <v>10000</v>
       </c>
       <c r="O35" s="26"/>
@@ -11889,18 +16305,18 @@
       </c>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40" s="44">
+      <c r="A40" s="43">
         <v>2020</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="42">
         <f t="shared" si="7"/>
         <v>1.4188723392026148E-2</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="42">
         <f t="shared" si="7"/>
-        <v>4.9506768027878234E-2</v>
-      </c>
-      <c r="D40" s="45">
+        <v>5.4182892593028553E-2</v>
+      </c>
+      <c r="D40" s="42">
         <f t="shared" si="7"/>
         <v>0.18398826898926868</v>
       </c>
@@ -11961,6 +16377,21 @@
       </c>
     </row>
     <row r="41" spans="1:25">
+      <c r="A41" s="44">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="45">
+        <f>L57</f>
+        <v>9.2280382100000669E-3</v>
+      </c>
+      <c r="C41" s="45">
+        <f>M57</f>
+        <v>2.2397144012987313E-2</v>
+      </c>
+      <c r="D41" s="45">
+        <f>N57</f>
+        <v>6.1748728952811804E-2</v>
+      </c>
       <c r="J41" s="1">
         <v>2017</v>
       </c>
@@ -12135,8 +16566,7 @@
       <c r="J44" s="1">
         <v>2020</v>
       </c>
-      <c r="K44" s="25">
-        <f>K21</f>
+      <c r="K44" s="4">
         <v>44196</v>
       </c>
       <c r="L44" s="1">
@@ -12145,7 +16575,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" si="9"/>
-        <v>11009.220262985285</v>
+        <v>11058.272338572784</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="10"/>
@@ -12190,6 +16620,25 @@
       </c>
     </row>
     <row r="45" spans="1:25">
+      <c r="J45" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K45" s="25">
+        <f>K21</f>
+        <v>44286</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="8"/>
+        <v>17830.310623586873</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="9"/>
+        <v>11305.946056674633</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="10"/>
+        <v>34107.857018655188</v>
+      </c>
       <c r="P45" s="4">
         <f t="shared" si="1"/>
         <v>42338</v>
@@ -12229,15 +16678,6 @@
       </c>
     </row>
     <row r="46" spans="1:25">
-      <c r="L46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="P46" s="4">
         <f t="shared" si="1"/>
         <v>42369</v>
@@ -12277,20 +16717,14 @@
       </c>
     </row>
     <row r="47" spans="1:25">
-      <c r="J47" s="1">
-        <v>2012</v>
-      </c>
-      <c r="L47" s="26">
-        <f t="shared" ref="L47:N55" si="12">L36/L35-1</f>
-        <v>1.6183221825977201E-2</v>
-      </c>
-      <c r="M47" s="26">
-        <f t="shared" si="12"/>
-        <v>-8.9392909468020143E-3</v>
-      </c>
-      <c r="N47" s="26">
-        <f t="shared" si="12"/>
-        <v>3.6854874100570312E-2</v>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="P47" s="4">
         <f t="shared" si="1"/>
@@ -12332,19 +16766,19 @@
     </row>
     <row r="48" spans="1:25">
       <c r="J48" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="L48" s="26">
-        <f t="shared" si="12"/>
-        <v>0.10625877747719326</v>
+        <f t="shared" ref="L48:N57" si="12">L36/L35-1</f>
+        <v>1.6183221825977201E-2</v>
       </c>
       <c r="M48" s="26">
         <f t="shared" si="12"/>
-        <v>-1.4176972144691158E-2</v>
+        <v>-8.9392909468020143E-3</v>
       </c>
       <c r="N48" s="26">
         <f t="shared" si="12"/>
-        <v>0.3238847806296028</v>
+        <v>3.6854874100570312E-2</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" si="1"/>
@@ -12386,19 +16820,19 @@
     </row>
     <row r="49" spans="10:25">
       <c r="J49" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="L49" s="26">
         <f t="shared" si="12"/>
-        <v>0.14621509423411361</v>
+        <v>0.10625877747719326</v>
       </c>
       <c r="M49" s="26">
         <f t="shared" si="12"/>
-        <v>7.6132240008227381E-2</v>
+        <v>-1.4176972144691158E-2</v>
       </c>
       <c r="N49" s="26">
         <f t="shared" si="12"/>
-        <v>0.13688363157085148</v>
+        <v>0.3238847806296028</v>
       </c>
       <c r="P49" s="4">
         <f t="shared" si="1"/>
@@ -12440,19 +16874,19 @@
     </row>
     <row r="50" spans="10:25">
       <c r="J50" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="L50" s="26">
         <f t="shared" si="12"/>
-        <v>7.5814012701578948E-2</v>
+        <v>0.14621509423411361</v>
       </c>
       <c r="M50" s="26">
         <f t="shared" si="12"/>
-        <v>-1.4960104978174238E-2</v>
+        <v>7.6132240008227381E-2</v>
       </c>
       <c r="N50" s="26">
         <f t="shared" si="12"/>
-        <v>1.3837599218981866E-2</v>
+        <v>0.13688363157085148</v>
       </c>
       <c r="P50" s="4">
         <f t="shared" si="1"/>
@@ -12494,19 +16928,19 @@
     </row>
     <row r="51" spans="10:25">
       <c r="J51" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="L51" s="26">
         <f t="shared" si="12"/>
-        <v>6.0350161116639045E-2</v>
+        <v>7.5814012701578948E-2</v>
       </c>
       <c r="M51" s="26">
         <f t="shared" si="12"/>
-        <v>-1.2257686628113218E-2</v>
+        <v>-1.4960104978174238E-2</v>
       </c>
       <c r="N51" s="26">
         <f t="shared" si="12"/>
-        <v>0.11959912078710544</v>
+        <v>1.3837599218981866E-2</v>
       </c>
       <c r="P51" s="4">
         <f t="shared" si="1"/>
@@ -12548,19 +16982,19 @@
     </row>
     <row r="52" spans="10:25">
       <c r="J52" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L52" s="26">
         <f t="shared" si="12"/>
-        <v>7.6256507261318163E-2</v>
+        <v>6.0350161116639045E-2</v>
       </c>
       <c r="M52" s="26">
         <f t="shared" si="12"/>
-        <v>6.9642689505384769E-3</v>
+        <v>-1.2257686628113218E-2</v>
       </c>
       <c r="N52" s="26">
         <f t="shared" si="12"/>
-        <v>0.21831601482707264</v>
+        <v>0.11959912078710544</v>
       </c>
       <c r="P52" s="4">
         <f t="shared" si="1"/>
@@ -12602,19 +17036,19 @@
     </row>
     <row r="53" spans="10:25">
       <c r="J53" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="L53" s="26">
         <f t="shared" si="12"/>
-        <v>5.2849171540643614E-2</v>
+        <v>7.6256507261318163E-2</v>
       </c>
       <c r="M53" s="26">
         <f t="shared" si="12"/>
-        <v>-3.1714344959151042E-2</v>
+        <v>6.9642689505384769E-3</v>
       </c>
       <c r="N53" s="26">
         <f t="shared" si="12"/>
-        <v>-4.3842417452558347E-2</v>
+        <v>0.21831601482707264</v>
       </c>
       <c r="P53" s="4">
         <f t="shared" si="1"/>
@@ -12655,20 +17089,20 @@
       </c>
     </row>
     <row r="54" spans="10:25">
-      <c r="J54" s="48">
-        <v>2019</v>
+      <c r="J54" s="1">
+        <v>2018</v>
       </c>
       <c r="L54" s="26">
         <f t="shared" si="12"/>
-        <v>4.589358165211932E-2</v>
+        <v>5.2849171540643614E-2</v>
       </c>
       <c r="M54" s="26">
         <f t="shared" si="12"/>
-        <v>5.1698900886541166E-2</v>
+        <v>-3.1714344959151042E-2</v>
       </c>
       <c r="N54" s="26">
         <f t="shared" si="12"/>
-        <v>0.314863709868344</v>
+        <v>-4.3842417452558347E-2</v>
       </c>
       <c r="P54" s="4">
         <f t="shared" si="1"/>
@@ -12709,20 +17143,20 @@
       </c>
     </row>
     <row r="55" spans="10:25">
-      <c r="J55" s="1">
-        <v>2020</v>
+      <c r="J55" s="48">
+        <v>2019</v>
       </c>
       <c r="L55" s="26">
         <f t="shared" si="12"/>
-        <v>1.4188723392026148E-2</v>
+        <v>4.589358165211932E-2</v>
       </c>
       <c r="M55" s="26">
         <f t="shared" si="12"/>
-        <v>4.9506768027878234E-2</v>
+        <v>5.1698900886541166E-2</v>
       </c>
       <c r="N55" s="26">
         <f t="shared" si="12"/>
-        <v>0.18398826898926868</v>
+        <v>0.314863709868344</v>
       </c>
       <c r="P55" s="4">
         <f t="shared" si="1"/>
@@ -12763,6 +17197,21 @@
       </c>
     </row>
     <row r="56" spans="10:25">
+      <c r="J56" s="48">
+        <v>2020</v>
+      </c>
+      <c r="L56" s="26">
+        <f t="shared" si="12"/>
+        <v>1.4188723392026148E-2</v>
+      </c>
+      <c r="M56" s="26">
+        <f t="shared" si="12"/>
+        <v>5.4182892593028553E-2</v>
+      </c>
+      <c r="N56" s="26">
+        <f t="shared" si="12"/>
+        <v>0.18398826898926868</v>
+      </c>
       <c r="P56" s="4">
         <f t="shared" si="1"/>
         <v>42674</v>
@@ -12802,6 +17251,21 @@
       </c>
     </row>
     <row r="57" spans="10:25">
+      <c r="J57" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L57" s="26">
+        <f t="shared" si="12"/>
+        <v>9.2280382100000669E-3</v>
+      </c>
+      <c r="M57" s="26">
+        <f t="shared" si="12"/>
+        <v>2.2397144012987313E-2</v>
+      </c>
+      <c r="N57" s="26">
+        <f t="shared" si="12"/>
+        <v>6.1748728952811804E-2</v>
+      </c>
       <c r="P57" s="4">
         <f t="shared" si="1"/>
         <v>42704</v>
@@ -13232,7 +17696,7 @@
     </row>
     <row r="68" spans="16:25">
       <c r="P68" s="4">
-        <f t="shared" ref="P68:P106" si="15">EOMONTH(P67,1)</f>
+        <f t="shared" ref="P68:P109" si="15">EOMONTH(P67,1)</f>
         <v>43039</v>
       </c>
       <c r="Q68" s="9">
@@ -14292,7 +18756,7 @@
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="R95" s="9">
-        <v>4.4438377425826125E-3</v>
+        <v>4.4620822377134939E-3</v>
       </c>
       <c r="S95" s="9">
         <v>-3.9215267403869269E-4</v>
@@ -14303,7 +18767,7 @@
       </c>
       <c r="U95" s="1">
         <f t="shared" si="16"/>
-        <v>10536.514664203294</v>
+        <v>10536.706047119158</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="16"/>
@@ -14315,7 +18779,7 @@
       </c>
       <c r="X95" s="26">
         <f>U95/MAX(U$2:U95)-1</f>
-        <v>-3.1919967720816733E-2</v>
+        <v>-3.1902383729784378E-2</v>
       </c>
       <c r="Y95" s="26">
         <f>V95/MAX(V$2:V95)-1</f>
@@ -14331,7 +18795,7 @@
         <v>1E-3</v>
       </c>
       <c r="R96" s="9">
-        <v>-9.3890515880494796E-3</v>
+        <v>-9.3901784396624999E-3</v>
       </c>
       <c r="S96" s="9">
         <v>-8.2318729964890869E-2</v>
@@ -14342,7 +18806,7 @@
       </c>
       <c r="U96" s="1">
         <f t="shared" si="16"/>
-        <v>10437.58678446285</v>
+        <v>10437.764497170438</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" si="16"/>
@@ -14354,7 +18818,7 @@
       </c>
       <c r="X96" s="26">
         <f>U96/MAX(U$2:U96)-1</f>
-        <v>-4.1009321085246464E-2</v>
+        <v>-4.0992993093573626E-2</v>
       </c>
       <c r="Y96" s="26">
         <f>V96/MAX(V$2:V96)-1</f>
@@ -14370,7 +18834,7 @@
         <v>1E-4</v>
       </c>
       <c r="R97" s="9">
-        <v>1.6753151161450486E-2</v>
+        <v>1.6757122407310199E-2</v>
       </c>
       <c r="S97" s="9">
         <v>-0.12351353104680352</v>
@@ -14381,7 +18845,7 @@
       </c>
       <c r="U97" s="1">
         <f t="shared" si="16"/>
-        <v>10612.449253623714</v>
+        <v>10612.671394508199</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" si="16"/>
@@ -14393,7 +18857,7 @@
       </c>
       <c r="X97" s="26">
         <f>U97/MAX(U$2:U97)-1</f>
-        <v>-2.4943205278965652E-2</v>
+        <v>-2.4922795289374466E-2</v>
       </c>
       <c r="Y97" s="26">
         <f>V97/MAX(V$2:V97)-1</f>
@@ -14409,7 +18873,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="R98" s="9">
-        <v>1.5009928257632144E-3</v>
+        <v>1.3038817290069726E-3</v>
       </c>
       <c r="S98" s="9">
         <v>0.12819403324982925</v>
@@ -14420,7 +18884,7 @@
       </c>
       <c r="U98" s="1">
         <f t="shared" si="16"/>
-        <v>10628.37846381718</v>
+        <v>10626.509062835454</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" si="16"/>
@@ -14432,7 +18896,7 @@
       </c>
       <c r="X98" s="26">
         <f>U98/MAX(U$2:U98)-1</f>
-        <v>-2.3479652025377606E-2</v>
+        <v>-2.3651409937781143E-2</v>
       </c>
       <c r="Y98" s="26">
         <f>V98/MAX(V$2:V98)-1</f>
@@ -14448,18 +18912,18 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="R99" s="9">
-        <v>-9.1287964169073366E-4</v>
+        <v>-8.2395529415391078E-4</v>
       </c>
       <c r="S99" s="9">
         <v>4.7627458500709929E-2</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" ref="T99:V106" si="17">T98*(1+Q99)</f>
+        <f t="shared" ref="T99:V109" si="17">T98*(1+Q99)</f>
         <v>17582.471341081226</v>
       </c>
       <c r="U99" s="1">
         <f t="shared" si="17"/>
-        <v>10618.676033493377</v>
+        <v>10617.753294434757</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" si="17"/>
@@ -14471,7 +18935,7 @@
       </c>
       <c r="X99" s="26">
         <f>U99/MAX(U$2:U99)-1</f>
-        <v>-2.4371097570740408E-2</v>
+        <v>-2.4455877527502445E-2</v>
       </c>
       <c r="Y99" s="26">
         <f>V99/MAX(V$2:V99)-1</f>
@@ -14487,7 +18951,7 @@
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="R100" s="9">
-        <v>-5.1401628528209287E-3</v>
+        <v>-5.4351219732009515E-3</v>
       </c>
       <c r="S100" s="9">
         <v>1.9888211104706066E-2</v>
@@ -14498,7 +18962,7 @@
       </c>
       <c r="U100" s="1">
         <f t="shared" si="17"/>
-        <v>10564.094309399874</v>
+        <v>10560.044510198148</v>
       </c>
       <c r="V100" s="1">
         <f t="shared" si="17"/>
@@ -14510,7 +18974,7 @@
       </c>
       <c r="X100" s="26">
         <f>U100/MAX(U$2:U100)-1</f>
-        <v>-2.9385989013145819E-2</v>
+        <v>-2.9758078823379774E-2</v>
       </c>
       <c r="Y100" s="26">
         <f>V100/MAX(V$2:V100)-1</f>
@@ -14526,7 +18990,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="R101" s="9">
-        <v>1.8293963144210279E-2</v>
+        <v>1.8478004779374668E-2</v>
       </c>
       <c r="S101" s="9">
         <v>5.6385171143966906E-2</v>
@@ -14537,7 +19001,7 @@
       </c>
       <c r="U101" s="1">
         <f t="shared" si="17"/>
-        <v>10757.353461347997</v>
+        <v>10755.173063127999</v>
       </c>
       <c r="V101" s="1">
         <f t="shared" si="17"/>
@@ -14549,7 +19013,7 @@
       </c>
       <c r="X101" s="26">
         <f>U101/MAX(U$2:U101)-1</f>
-        <v>-1.1629612068898121E-2</v>
+        <v>-1.182994396672854E-2</v>
       </c>
       <c r="Y101" s="26">
         <f>V101/MAX(V$2:V101)-1</f>
@@ -14565,7 +19029,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="R102" s="9">
-        <v>2.2000344380841419E-3</v>
+        <v>1.7991509481924961E-3</v>
       </c>
       <c r="S102" s="9">
         <v>7.1879829682211405E-2</v>
@@ -14576,7 +19040,7 @@
       </c>
       <c r="U102" s="1">
         <f t="shared" si="17"/>
-        <v>10781.020009425607</v>
+        <v>10774.5232429425</v>
       </c>
       <c r="V102" s="1">
         <f t="shared" si="17"/>
@@ -14588,7 +19052,7 @@
       </c>
       <c r="X102" s="26">
         <f>U102/MAX(U$2:U102)-1</f>
-        <v>-9.4551631778670986E-3</v>
+        <v>-1.0052076873440896E-2</v>
       </c>
       <c r="Y102" s="26">
         <f>V102/MAX(V$2:V102)-1</f>
@@ -14603,8 +19067,8 @@
       <c r="Q103" s="9">
         <v>-1.03E-2</v>
       </c>
-      <c r="R103" s="46">
-        <v>-4.5999999999999999E-3</v>
+      <c r="R103" s="9">
+        <v>-1.0622951360452104E-2</v>
       </c>
       <c r="S103" s="9">
         <v>-3.7997194147475488E-2</v>
@@ -14615,7 +19079,7 @@
       </c>
       <c r="U103" s="1">
         <f t="shared" si="17"/>
-        <v>10731.427317382249</v>
+        <v>10660.06600660066</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" si="17"/>
@@ -14627,7 +19091,7 @@
       </c>
       <c r="X103" s="26">
         <f>U103/MAX(U$2:U103)-1</f>
-        <v>-1.4011669427248852E-2</v>
+        <v>-2.0568245510194871E-2</v>
       </c>
       <c r="Y103" s="26">
         <f>V103/MAX(V$2:V103)-1</f>
@@ -14643,7 +19107,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="R104" s="9">
-        <v>-4.7999999999999996E-3</v>
+        <v>-5.0320417567134568E-3</v>
       </c>
       <c r="S104" s="9">
         <v>-2.6592646444557833E-2</v>
@@ -14654,7 +19118,7 @@
       </c>
       <c r="U104" s="1">
         <f t="shared" si="17"/>
-        <v>10679.916466258814</v>
+        <v>10606.424109326124</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" si="17"/>
@@ -14666,7 +19130,7 @@
       </c>
       <c r="X104" s="26">
         <f>U104/MAX(U$2:U104)-1</f>
-        <v>-1.8744413413998129E-2</v>
+        <v>-2.549678699663871E-2</v>
       </c>
       <c r="Y104" s="26">
         <f>V104/MAX(V$2:V104)-1</f>
@@ -14682,7 +19146,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="R105" s="9">
-        <v>1.49E-2</v>
+        <v>1.5127041435275768E-2</v>
       </c>
       <c r="S105" s="9">
         <v>0.10946362497104611</v>
@@ -14693,7 +19157,7 @@
       </c>
       <c r="U105" s="1">
         <f t="shared" si="17"/>
-        <v>10839.04722160607</v>
+        <v>10766.867926308008</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" si="17"/>
@@ -14705,7 +19169,7 @@
       </c>
       <c r="X105" s="26">
         <f>U105/MAX(U$2:U105)-1</f>
-        <v>-4.1237051738667319E-3</v>
+        <v>-1.0755436514727545E-2</v>
       </c>
       <c r="Y105" s="26">
         <f>V105/MAX(V$2:V105)-1</f>
@@ -14720,8 +19184,8 @@
       <c r="Q106" s="9">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="R106" s="46">
-        <v>1.5699999999999999E-2</v>
+      <c r="R106" s="9">
+        <v>2.7064919367381757E-2</v>
       </c>
       <c r="S106" s="9">
         <v>3.8448567061827754E-2</v>
@@ -14732,7 +19196,7 @@
       </c>
       <c r="U106" s="1">
         <f t="shared" si="17"/>
-        <v>11009.220262985285</v>
+        <v>11058.272338572784</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" si="17"/>
@@ -14752,8 +19216,125 @@
       </c>
     </row>
     <row r="107" spans="16:25">
-      <c r="R107" s="47" t="s">
-        <v>41</v>
+      <c r="P107" s="4">
+        <f t="shared" si="15"/>
+        <v>44227</v>
+      </c>
+      <c r="Q107" s="9">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="R107" s="9">
+        <v>-1.7600361464140679E-3</v>
+      </c>
+      <c r="S107" s="9">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="17"/>
+        <v>17729.111789744304</v>
+      </c>
+      <c r="U107" s="1">
+        <f t="shared" si="17"/>
+        <v>11038.809379540005</v>
+      </c>
+      <c r="V107" s="1">
+        <f t="shared" si="17"/>
+        <v>31799.894014291556</v>
+      </c>
+      <c r="W107" s="26">
+        <f>T107/MAX(T$2:T107)-1</f>
+        <v>0</v>
+      </c>
+      <c r="X107" s="26">
+        <f>U107/MAX(U$2:U107)-1</f>
+        <v>-1.7600361464140679E-3</v>
+      </c>
+      <c r="Y107" s="26">
+        <f>V107/MAX(V$2:V107)-1</f>
+        <v>-1.009620651214338E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="16:25">
+      <c r="P108" s="4">
+        <f t="shared" si="15"/>
+        <v>44255</v>
+      </c>
+      <c r="Q108" s="9">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="R108" s="9">
+        <v>2.1441879559162436E-2</v>
+      </c>
+      <c r="S108" s="9">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="T108" s="1">
+        <f t="shared" si="17"/>
+        <v>17775.207480397639</v>
+      </c>
+      <c r="U108" s="1">
+        <f t="shared" si="17"/>
+        <v>11275.502200732655</v>
+      </c>
+      <c r="V108" s="1">
+        <f t="shared" si="17"/>
+        <v>32676.760149373655</v>
+      </c>
+      <c r="W108" s="26">
+        <f>T108/MAX(T$2:T108)-1</f>
+        <v>0</v>
+      </c>
+      <c r="X108" s="26">
+        <f>U108/MAX(U$2:U108)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y108" s="26">
+        <f>V108/MAX(V$2:V108)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="16:25">
+      <c r="P109" s="4">
+        <f t="shared" si="15"/>
+        <v>44286</v>
+      </c>
+      <c r="Q109" s="9">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="R109" s="46">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="S109" s="9">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="T109" s="1">
+        <f t="shared" si="17"/>
+        <v>17830.310623586873</v>
+      </c>
+      <c r="U109" s="1">
+        <f t="shared" si="17"/>
+        <v>11305.946056674633</v>
+      </c>
+      <c r="V109" s="1">
+        <f t="shared" si="17"/>
+        <v>34107.857018655188</v>
+      </c>
+      <c r="W109" s="26">
+        <f>T109/MAX(T$2:T109)-1</f>
+        <v>0</v>
+      </c>
+      <c r="X109" s="26">
+        <f>U109/MAX(U$2:U109)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="26">
+        <f>V109/MAX(V$2:V109)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="16:25">
+      <c r="R110" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -14769,20 +19350,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918A626E-E195-4CCD-BEE9-6893EEEC916D}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16484,7 +21065,7 @@
       </c>
       <c r="C95" s="50">
         <f>Institutional!U95</f>
-        <v>10536.514664203294</v>
+        <v>10536.706047119158</v>
       </c>
       <c r="D95" s="50">
         <f>Institutional!V95</f>
@@ -16502,7 +21083,7 @@
       </c>
       <c r="C96" s="50">
         <f>Institutional!U96</f>
-        <v>10437.58678446285</v>
+        <v>10437.764497170438</v>
       </c>
       <c r="D96" s="50">
         <f>Institutional!V96</f>
@@ -16520,7 +21101,7 @@
       </c>
       <c r="C97" s="50">
         <f>Institutional!U97</f>
-        <v>10612.449253623714</v>
+        <v>10612.671394508199</v>
       </c>
       <c r="D97" s="50">
         <f>Institutional!V97</f>
@@ -16538,7 +21119,7 @@
       </c>
       <c r="C98" s="50">
         <f>Institutional!U98</f>
-        <v>10628.37846381718</v>
+        <v>10626.509062835454</v>
       </c>
       <c r="D98" s="50">
         <f>Institutional!V98</f>
@@ -16556,7 +21137,7 @@
       </c>
       <c r="C99" s="50">
         <f>Institutional!U99</f>
-        <v>10618.676033493377</v>
+        <v>10617.753294434757</v>
       </c>
       <c r="D99" s="50">
         <f>Institutional!V99</f>
@@ -16574,7 +21155,7 @@
       </c>
       <c r="C100" s="50">
         <f>Institutional!U100</f>
-        <v>10564.094309399874</v>
+        <v>10560.044510198148</v>
       </c>
       <c r="D100" s="50">
         <f>Institutional!V100</f>
@@ -16592,7 +21173,7 @@
       </c>
       <c r="C101" s="50">
         <f>Institutional!U101</f>
-        <v>10757.353461347997</v>
+        <v>10755.173063127999</v>
       </c>
       <c r="D101" s="50">
         <f>Institutional!V101</f>
@@ -16610,7 +21191,7 @@
       </c>
       <c r="C102" s="50">
         <f>Institutional!U102</f>
-        <v>10781.020009425607</v>
+        <v>10774.5232429425</v>
       </c>
       <c r="D102" s="50">
         <f>Institutional!V102</f>
@@ -16628,7 +21209,7 @@
       </c>
       <c r="C103" s="50">
         <f>Institutional!U103</f>
-        <v>10731.427317382249</v>
+        <v>10660.06600660066</v>
       </c>
       <c r="D103" s="50">
         <f>Institutional!V103</f>
@@ -16646,7 +21227,7 @@
       </c>
       <c r="C104" s="50">
         <f>Institutional!U104</f>
-        <v>10679.916466258814</v>
+        <v>10606.424109326124</v>
       </c>
       <c r="D104" s="50">
         <f>Institutional!V104</f>
@@ -16664,7 +21245,7 @@
       </c>
       <c r="C105" s="50">
         <f>Institutional!U105</f>
-        <v>10839.04722160607</v>
+        <v>10766.867926308008</v>
       </c>
       <c r="D105" s="50">
         <f>Institutional!V105</f>
@@ -16682,11 +21263,65 @@
       </c>
       <c r="C106" s="50">
         <f>Institutional!U106</f>
-        <v>11009.220262985285</v>
+        <v>11058.272338572784</v>
       </c>
       <c r="D106" s="50">
         <f>Institutional!V106</f>
         <v>32124.226842536747</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="49">
+        <f>Institutional!P107</f>
+        <v>44227</v>
+      </c>
+      <c r="B107" s="50">
+        <f>Institutional!T107</f>
+        <v>17729.111789744304</v>
+      </c>
+      <c r="C107" s="50">
+        <f>Institutional!U107</f>
+        <v>11038.809379540005</v>
+      </c>
+      <c r="D107" s="50">
+        <f>Institutional!V107</f>
+        <v>31799.894014291556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="49">
+        <f>Institutional!P108</f>
+        <v>44255</v>
+      </c>
+      <c r="B108" s="50">
+        <f>Institutional!T108</f>
+        <v>17775.207480397639</v>
+      </c>
+      <c r="C108" s="50">
+        <f>Institutional!U108</f>
+        <v>11275.502200732655</v>
+      </c>
+      <c r="D108" s="50">
+        <f>Institutional!V108</f>
+        <v>32676.760149373655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="49">
+        <f>Institutional!P109</f>
+        <v>44286</v>
+      </c>
+      <c r="B109" s="50">
+        <f>Institutional!T109</f>
+        <v>17830.310623586873</v>
+      </c>
+      <c r="C109" s="50">
+        <f>Institutional!U109</f>
+        <v>11305.946056674633</v>
+      </c>
+      <c r="D109" s="50">
+        <f>Institutional!V109</f>
+        <v>34107.857018655188</v>
       </c>
     </row>
   </sheetData>
@@ -16697,19 +21332,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A4D6-8951-4AB4-9E7B-24E5F93E1EE9}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.109375" style="50"/>
-    <col min="9" max="9" width="14.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="50"/>
+    <col min="9" max="9" width="14.7109375" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16751,35 +21386,35 @@
       </c>
       <c r="B2" s="50">
         <f>Institutional!B2</f>
-        <v>0.45999999999999375</v>
+        <v>0.31000000000001027</v>
       </c>
       <c r="C2" s="50">
         <f>Institutional!C2</f>
-        <v>1.0334317075999966</v>
+        <v>0.92280382100000669</v>
       </c>
       <c r="D2" s="50">
         <f>Institutional!D2</f>
-        <v>0.72406461281901979</v>
+        <v>1.9657720758851749</v>
       </c>
       <c r="E2" s="50">
         <f>Institutional!E2</f>
-        <v>1.4188723392026148</v>
+        <v>0.92280382100000669</v>
       </c>
       <c r="F2" s="50">
         <f>Institutional!F2</f>
-        <v>1.4188723392026148</v>
+        <v>2.3548831935432668</v>
       </c>
       <c r="G2" s="50">
         <f>Institutional!G2</f>
-        <v>3.7506465132370881</v>
+        <v>3.6824904580594842</v>
       </c>
       <c r="H2" s="50">
         <f>Institutional!H2</f>
-        <v>4.9705581395163678</v>
+        <v>4.8227832951297955</v>
       </c>
       <c r="I2" s="50">
         <f>Institutional!I2</f>
-        <v>6.7872910073521586</v>
+        <v>6.7007210584686616</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -16792,35 +21427,35 @@
       </c>
       <c r="B3" s="50">
         <f>Institutional!B3</f>
-        <v>1.5700000000000047</v>
+        <v>0.26999999999999247</v>
       </c>
       <c r="C3" s="50">
         <f>Institutional!C3</f>
-        <v>2.5885927135999909</v>
+        <v>2.2397144012987313</v>
       </c>
       <c r="D3" s="50">
         <f>Institutional!D3</f>
-        <v>4.2135742123140751</v>
+        <v>6.058874773139733</v>
       </c>
       <c r="E3" s="50">
         <f>Institutional!E3</f>
-        <v>4.9506768027878234</v>
+        <v>2.2397144012987313</v>
       </c>
       <c r="F3" s="50">
         <f>Institutional!F3</f>
-        <v>4.9506768027878234</v>
+        <v>6.5325179344117412</v>
       </c>
       <c r="G3" s="50">
         <f>Institutional!G3</f>
-        <v>2.2413841873446527</v>
+        <v>3.7726839926761846</v>
       </c>
       <c r="H3" s="50">
         <f>Institutional!H3</f>
-        <v>1.2296128996412969</v>
+        <v>1.5943424489684332</v>
       </c>
       <c r="I3" s="50">
         <f>Institutional!I3</f>
-        <v>1.1155770636882334</v>
+        <v>1.3860830710075822</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -16833,35 +21468,35 @@
       </c>
       <c r="B4" s="50">
         <f>Institutional!B4</f>
-        <v>3.8448567061827754</v>
+        <v>4.3795555701961586</v>
       </c>
       <c r="C4" s="50">
         <f>Institutional!C4</f>
-        <v>12.148296749594966</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="D4" s="50">
         <f>Institutional!D4</f>
-        <v>22.162360450086371</v>
+        <v>19.073311528105208</v>
       </c>
       <c r="E4" s="50">
         <f>Institutional!E4</f>
-        <v>18.398826898926867</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="F4" s="50">
         <f>Institutional!F4</f>
-        <v>18.398826898926867</v>
+        <v>56.351628330676398</v>
       </c>
       <c r="G4" s="50">
         <f>Institutional!G4</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="H4" s="50">
         <f>Institutional!H4</f>
-        <v>15.216856682870006</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="I4" s="50">
         <f>Institutional!I4</f>
-        <v>14.414401804702637</v>
+        <v>14.751765420222362</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -16875,21 +21510,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC7F8A-3150-47B3-954B-743DA70FCC9D}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16911,190 +21546,212 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <f>Institutional!J47</f>
+        <f>Institutional!J48</f>
         <v>2012</v>
       </c>
       <c r="B2" s="50">
-        <f>Institutional!L47*100</f>
+        <f>Institutional!L48*100</f>
         <v>1.6183221825977201</v>
       </c>
       <c r="C2" s="50">
-        <f>Institutional!M47*100</f>
+        <f>Institutional!M48*100</f>
         <v>-0.89392909468020143</v>
       </c>
       <c r="D2" s="50">
-        <f>Institutional!N47*100</f>
+        <f>Institutional!N48*100</f>
         <v>3.6854874100570312</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <f>Institutional!J48</f>
+        <f>Institutional!J49</f>
         <v>2013</v>
       </c>
       <c r="B3" s="50">
-        <f>Institutional!L48*100</f>
+        <f>Institutional!L49*100</f>
         <v>10.625877747719326</v>
       </c>
       <c r="C3" s="50">
-        <f>Institutional!M48*100</f>
+        <f>Institutional!M49*100</f>
         <v>-1.4176972144691158</v>
       </c>
       <c r="D3" s="50">
-        <f>Institutional!N48*100</f>
+        <f>Institutional!N49*100</f>
         <v>32.388478062960282</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <f>Institutional!J49</f>
+        <f>Institutional!J50</f>
         <v>2014</v>
       </c>
       <c r="B4" s="50">
-        <f>Institutional!L49*100</f>
+        <f>Institutional!L50*100</f>
         <v>14.621509423411361</v>
       </c>
       <c r="C4" s="50">
-        <f>Institutional!M49*100</f>
+        <f>Institutional!M50*100</f>
         <v>7.6132240008227381</v>
       </c>
       <c r="D4" s="50">
-        <f>Institutional!N49*100</f>
+        <f>Institutional!N50*100</f>
         <v>13.688363157085149</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <f>Institutional!J50</f>
+        <f>Institutional!J51</f>
         <v>2015</v>
       </c>
       <c r="B5" s="50">
-        <f>Institutional!L50*100</f>
+        <f>Institutional!L51*100</f>
         <v>7.5814012701578948</v>
       </c>
       <c r="C5" s="50">
-        <f>Institutional!M50*100</f>
+        <f>Institutional!M51*100</f>
         <v>-1.4960104978174238</v>
       </c>
       <c r="D5" s="50">
-        <f>Institutional!N50*100</f>
+        <f>Institutional!N51*100</f>
         <v>1.3837599218981866</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <f>Institutional!J51</f>
+        <f>Institutional!J52</f>
         <v>2016</v>
       </c>
       <c r="B6" s="50">
-        <f>Institutional!L51*100</f>
+        <f>Institutional!L52*100</f>
         <v>6.0350161116639045</v>
       </c>
       <c r="C6" s="50">
-        <f>Institutional!M51*100</f>
+        <f>Institutional!M52*100</f>
         <v>-1.2257686628113218</v>
       </c>
       <c r="D6" s="50">
-        <f>Institutional!N51*100</f>
+        <f>Institutional!N52*100</f>
         <v>11.959912078710545</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <f>Institutional!J52</f>
+        <f>Institutional!J53</f>
         <v>2017</v>
       </c>
       <c r="B7" s="50">
-        <f>Institutional!L52*100</f>
+        <f>Institutional!L53*100</f>
         <v>7.6256507261318163</v>
       </c>
       <c r="C7" s="50">
-        <f>Institutional!M52*100</f>
+        <f>Institutional!M53*100</f>
         <v>0.69642689505384769</v>
       </c>
       <c r="D7" s="50">
-        <f>Institutional!N52*100</f>
+        <f>Institutional!N53*100</f>
         <v>21.831601482707264</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <f>Institutional!J53</f>
+        <f>Institutional!J54</f>
         <v>2018</v>
       </c>
       <c r="B8" s="50">
-        <f>Institutional!L53*100</f>
+        <f>Institutional!L54*100</f>
         <v>5.2849171540643614</v>
       </c>
       <c r="C8" s="50">
-        <f>Institutional!M53*100</f>
+        <f>Institutional!M54*100</f>
         <v>-3.1714344959151042</v>
       </c>
       <c r="D8" s="50">
-        <f>Institutional!N53*100</f>
+        <f>Institutional!N54*100</f>
         <v>-4.3842417452558351</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f>Institutional!J54</f>
+        <f>Institutional!J55</f>
         <v>2019</v>
       </c>
       <c r="B9" s="50">
-        <f>Institutional!L54*100</f>
+        <f>Institutional!L55*100</f>
         <v>4.589358165211932</v>
       </c>
       <c r="C9" s="50">
-        <f>Institutional!M54*100</f>
+        <f>Institutional!M55*100</f>
         <v>5.1698900886541166</v>
       </c>
       <c r="D9" s="50">
-        <f>Institutional!N54*100</f>
+        <f>Institutional!N55*100</f>
         <v>31.486370986834402</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>31</v>
+      <c r="A10">
+        <f>Institutional!J56</f>
+        <v>2020</v>
       </c>
       <c r="B10" s="50">
-        <f>Institutional!L55*100</f>
+        <f>Institutional!L56*100</f>
         <v>1.4188723392026148</v>
       </c>
       <c r="C10" s="50">
-        <f>Institutional!M55*100</f>
-        <v>4.9506768027878234</v>
+        <f>Institutional!M56*100</f>
+        <v>5.4182892593028553</v>
       </c>
       <c r="D10" s="50">
-        <f>Institutional!N55*100</f>
+        <f>Institutional!N56*100</f>
         <v>18.398826898926867</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f>Institutional!J57</f>
+        <v>2021</v>
+      </c>
+      <c r="B11" s="50">
+        <f>Institutional!L57*100</f>
+        <v>0.92280382100000669</v>
+      </c>
+      <c r="C11" s="50">
+        <f>Institutional!M57*100</f>
+        <v>2.2397144012987313</v>
+      </c>
+      <c r="D11" s="50">
+        <f>Institutional!N57*100</f>
+        <v>6.1748728952811804</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -17106,17 +21763,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B78A80-A7AE-40F6-B623-B57BA2AAD26B}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17138,19 +21795,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="50">
         <f>Institutional!B27</f>
-        <v>2.4473709780644959</v>
+        <v>2.4477648735086852</v>
       </c>
       <c r="C2" s="50">
         <f>Institutional!C27</f>
-        <v>0.25686371686105158</v>
+        <v>0.31413101062213933</v>
       </c>
       <c r="D2" s="50">
         <f>Institutional!D27</f>
-        <v>1.0736201354968968</v>
+        <v>1.1084390357336766</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17158,19 +21815,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="51">
         <f>Institutional!B28</f>
-        <v>0.83653846153846156</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="C3" s="51">
         <f>Institutional!C28</f>
-        <v>0.51923076923076927</v>
+        <v>0.52336448598130836</v>
       </c>
       <c r="D3" s="51">
         <f>Institutional!D28</f>
-        <v>0.73076923076923073</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -17178,7 +21835,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="51">
         <f>Institutional!B29</f>
@@ -17204,68 +21861,68 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05FD020-5E42-4911-A85F-2C7D3A4F86BC}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="50">
         <f>Institutional!B8*100</f>
-        <v>6.7872910073521586</v>
+        <v>6.7007210584686616</v>
       </c>
       <c r="B2" s="50">
         <f>Institutional!B9*100</f>
-        <v>2.7732988043847322</v>
+        <v>2.7374855857228173</v>
       </c>
       <c r="C2" s="50">
         <f>Institutional!C8*100</f>
-        <v>1.1155770636882334</v>
+        <v>1.3860830710075822</v>
       </c>
       <c r="D2" s="50">
         <f>Institutional!C9*100</f>
-        <v>4.3430698477811713</v>
+        <v>4.4124362897583147</v>
       </c>
       <c r="E2" s="50">
         <f>Institutional!D8*100</f>
-        <v>14.414401804702637</v>
+        <v>14.751765420222362</v>
       </c>
       <c r="F2" s="50">
         <f>Institutional!D9*100</f>
-        <v>13.425979383323797</v>
+        <v>13.308594288596268</v>
       </c>
     </row>
   </sheetData>

--- a/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs-institutional.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46947088-6E52-4833-BEE5-AF4F8B2B3BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D991FB-A8DD-48B6-8944-17B3BA2F20FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutional" sheetId="7" r:id="rId1"/>
@@ -5186,7 +5186,7 @@
             <c:numRef>
               <c:f>[3]Institutional!$P$2:$P$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -5831,19 +5831,19 @@
                   <c:v>17540.772969589394</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>17586.378979310324</c:v>
+                  <c:v>17582.870824716407</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>17667.276322615151</c:v>
+                  <c:v>17663.752030510102</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>17729.111789744304</c:v>
+                  <c:v>17725.575162616889</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17775.207480397639</c:v>
+                  <c:v>17771.661658039691</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17830.310623586873</c:v>
+                  <c:v>17826.753809179616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,7 +5885,7 @@
             <c:numRef>
               <c:f>[3]Institutional!$P$2:$P$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -6584,7 +6584,7 @@
             <c:numRef>
               <c:f>[3]Institutional!$P$2:$P$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>41030</c:v>
@@ -7250,6 +7250,2293 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C655-4419-B5BF-0D4B8C6B256B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536349000"/>
+        <c:axId val="536340472"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536349000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Trade Gothic LT Std" panose="00000500000000000000"/>
+                <a:ea typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536340472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536340472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Trade Gothic LT Std" panose="00000500000000000000"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536349000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5060618006585718E-2"/>
+          <c:y val="3.6707400100090257E-2"/>
+          <c:w val="0.86844932707024103"/>
+          <c:h val="0.82745461772889894"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tactical Program Composite (Net)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$T$2:$T$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10061.9112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10083.04121352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10092.115950612168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10078.996199876372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10118.30428505589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10123.363437198417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10161.832218259771</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10143.540920266903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10201.359103512425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10292.151199533684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10366.254688170327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10404.609830516558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10451.430574753882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10519.364873489782</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10638.233696560217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10652.063400365747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10828.887652811818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10962.082970941403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11241.616086700409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11412.488651218257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11697.800867498712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11958.661826843934</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12152.392148438807</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12315.234203227887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12497.499669435658</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12726.203913386331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12839.467128215469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12987.121000189947</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12452.051614982121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12643.813209852848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12885.310042161036</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13103.071781873556</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13371.684753401963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13267.385612325428</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13328.415586142124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13427.045861479577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13534.462228371414</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13603.48798573611</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13595.325892944667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13429.462917050743</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13512.725587136458</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13664.068113712387</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13862.197101361215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13855.266002810535</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13966.108130833019</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14089.009882384349</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14134.094714007981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14163.776312907397</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14243.093460259679</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14362.735445325859</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14427.367754829826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14502.390067154942</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14512.541740201948</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14564.786890466676</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14698.782929858971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14813.433436711872</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14921.57150079987</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15070.787215807868</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15230.53756029543</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15356.951022045881</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15449.092728178157</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15538.697466001591</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15610.175474345198</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15721.007720213051</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15865.640991239012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15849.775350247774</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15819.660777082303</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15906.668911356257</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16022.787594409159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15997.151134258103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16059.540023681709</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16120.5662757717</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16176.988257736903</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16364.641321526651</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16459.556241191505</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16624.151803603421</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16625.81421878378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16665.716172908862</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16655.716743205117</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16727.3363252009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16792.572936869183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16878.215058847218</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16972.733063176762</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16969.338516564127</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17093.214687735046</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17221.413797893059</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17192.137394436642</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17266.063585232718</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17274.696617025333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17352.432751801945</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17420.107239533972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17400.945121570487</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17418.346066692055</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17420.087901298724</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17501.962314434826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17582.471341081226</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17540.273409862632</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17606.926448820112</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17668.550691390981</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17486.564619269655</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17540.772969589394</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17582.870824716407</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17663.752030510102</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17725.575162616889</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17771.661658039691</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17826.753809179616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6209-4B49-9E01-AABEF9D4000D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barclay CTA Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$U$2:$U$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10264.320312118196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10038.061277392108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10248.449200309902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10202.78386956434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10115.479084410461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9904.3495526936986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9862.0675984964146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9910.6070905319793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10049.643361353845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9963.5381369761726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10009.001832149666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10090.32590118285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9930.5963525833813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9809.997775173606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9738.8545937538802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9651.7616968282746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9594.4185906630446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9659.1914550262118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9710.1437388224695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9770.104689872529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9670.1276216469123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9773.3376941297738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9684.5838668986507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9691.9042634303823</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9770.7027614845993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9830.7423162322466</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9826.3097511987944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9981.1214423710189</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10207.322378711933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10141.445645030488</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10432.262238339399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10513.924645027411</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10836.134871641871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10819.091539473924</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10883.929337326403</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10718.048195002788</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10693.02146120173</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10464.253943257017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10559.446438586079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10375.206206547964</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10435.259431503888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10327.367312686538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10488.05035831325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10356.635228605188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10466.157519759437</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10647.492832538928</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10446.222938541141</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10424.121629311119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10326.560770398262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10536.292523318818</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10574.264944357132</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10397.307515777988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10349.427611291732</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10215.278439928496</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10195.521571417787</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10229.686839451268</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10129.607244663581</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10196.39304719537</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10146.134526469114</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10156.951078767399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10164.425265142234</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10060.364222194197</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10118.985492833221</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10171.5542787581</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10055.415606798329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10248.910569839214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10246.347405787488</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10300.929129880991</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10563.564588829186</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10171.824265371552</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10117.14001471598</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10140.440884722211</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10092.496046746644</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10079.618710550769</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10085.736128754224</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10161.137580051884</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10129.880648829094</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9966.2345855585845</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9953.8562119647777</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9974.2419100561783</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9916.3314902474995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9942.875617167183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10108.743089282521</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10221.617999016427</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10190.972809613982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10409.009214062133</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10494.352324328425</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10741.789929225914</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10524.857394096041</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10423.325339679044</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10460.785127907011</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10489.899253982558</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10536.706047119158</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10437.764497170438</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10612.671394508199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10626.509062835454</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10617.753294434757</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10560.044510198148</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10755.173063127999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10774.5232429425</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10660.06600660066</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10606.424109326124</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10766.867926308008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11058.272338572784</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11038.809379540005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11275.502200732655</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11305.946056674633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6209-4B49-9E01-AABEF9D4000D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Institutional!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500 TR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[3]Institutional!$P$2:$P$109</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Institutional!$V$2:$V$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9398.9865116625679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9786.2483543234703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9922.1667453279333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10145.647547838471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10407.837974348146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10215.656076375952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10274.900431394954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10368.548741005703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10905.598198242953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11053.646984789395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11468.191867252901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11689.147229053333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11962.557236422652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11801.922646993071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12402.480727989338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12043.288537811233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12420.945425640264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12991.90202946072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13387.816611603783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13726.763875433679</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13252.146624603594</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13858.37659703075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13974.836674367198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14078.131339477197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14408.632867161823</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14706.262264947714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14503.440395459178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15083.670748772474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14872.154739134399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15235.404194715622</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15645.146599763193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15605.733164418616</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15137.243212360589</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16007.236836657812</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15754.071755636705</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15905.225592236551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16109.744889087617</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15797.873661723432</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16128.871997416605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15155.749310678893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14780.742065562103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16027.564564340781</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16075.216732493731</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15821.679045466215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15036.556789295446</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15016.270462279854</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16034.933883134199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16097.117685537096</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16386.177145175585</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16428.654229906195</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17034.345993657425</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17058.275579402347</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17061.463430790514</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16750.254614104389</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17370.602214107701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17713.937948679744</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18049.904364458369</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18766.632718119432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18788.492270495415</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18981.460781147805</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19248.577887075557</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19368.722623808713</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19766.997043992371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19827.524819700116</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20236.522012734869</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20708.738024856983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21343.86566311451</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21581.174288529557</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22816.777206448598</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21975.846850651262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21417.351847711812</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21499.53217245865</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22017.288918697403</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22152.793303028076</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22977.204792541288</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23725.894461418753</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23860.943438408263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22230.046948356841</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22683.053050815215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20635.003436255425</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22288.587492030405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23004.239428339621</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23451.242434028074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24400.766740359893</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22850.146144355884</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24460.549304054817</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24812.123771435228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24419.065835341295</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24875.963600533276</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25414.751885800433</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26337.282957001305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27132.217171340835</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27121.577199824496</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24888.963410090204</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21814.83965521527</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24611.37193531563</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25783.549030810413</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26296.33769696371</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27779.061198466559</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>29775.815386144062</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28644.417948017359</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27882.687068915588</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>30934.8270694124</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32124.226842536747</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>31799.894014291556</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32676.760149373655</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34107.857018655188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6209-4B49-9E01-AABEF9D4000D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7494,6 +9781,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9081,6 +11408,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1330" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1862" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1197" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9197,6 +12040,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2965</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930D9E65-AC00-4A8E-B977-DFCE29081C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13614,7 +16495,7 @@
             <v>44165</v>
           </cell>
           <cell r="T105">
-            <v>17586.378979310324</v>
+            <v>17582.870824716407</v>
           </cell>
           <cell r="U105">
             <v>10766.867926308008</v>
@@ -13628,7 +16509,7 @@
             <v>44196</v>
           </cell>
           <cell r="T106">
-            <v>17667.276322615151</v>
+            <v>17663.752030510102</v>
           </cell>
           <cell r="U106">
             <v>11058.272338572784</v>
@@ -13642,7 +16523,7 @@
             <v>44227</v>
           </cell>
           <cell r="T107">
-            <v>17729.111789744304</v>
+            <v>17725.575162616889</v>
           </cell>
           <cell r="U107">
             <v>11038.809379540005</v>
@@ -13656,7 +16537,7 @@
             <v>44255</v>
           </cell>
           <cell r="T108">
-            <v>17775.207480397639</v>
+            <v>17771.661658039691</v>
           </cell>
           <cell r="U108">
             <v>11275.502200732655</v>
@@ -13670,7 +16551,7 @@
             <v>44286</v>
           </cell>
           <cell r="T109">
-            <v>17830.310623586873</v>
+            <v>17826.753809179616</v>
           </cell>
           <cell r="U109">
             <v>11305.946056674633</v>
@@ -13987,31 +16868,31 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1"/>
-    <col min="15" max="15" width="3.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="8.7109375" style="1"/>
-    <col min="27" max="27" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="3.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="8.6640625" style="1"/>
+    <col min="27" max="27" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33.75">
+    <row r="1" spans="1:27" ht="32.4">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>16</v>
@@ -14068,7 +16949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="23.25" thickBot="1">
+    <row r="2" spans="1:27" ht="22.2" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
@@ -14082,7 +16963,7 @@
       </c>
       <c r="D2" s="29">
         <f>L27*100</f>
-        <v>1.9657720758851749</v>
+        <v>1.9454318061712605</v>
       </c>
       <c r="E2" s="29">
         <f>L28*100</f>
@@ -14090,19 +16971,19 @@
       </c>
       <c r="F2" s="29">
         <f>L29*100</f>
-        <v>2.3548831935432668</v>
+        <v>2.3344653034188978</v>
       </c>
       <c r="G2" s="29">
         <f>L30*100</f>
-        <v>3.6824904580594842</v>
+        <v>3.6755957585805854</v>
       </c>
       <c r="H2" s="29">
         <f>L31*100</f>
-        <v>4.8227832951297955</v>
+        <v>4.8186009233615046</v>
       </c>
       <c r="I2" s="30">
         <f>L32*100</f>
-        <v>6.7007210584686616</v>
+        <v>6.6983337662633868</v>
       </c>
       <c r="P2" s="4">
         <v>41030</v>
@@ -14118,7 +16999,7 @@
       </c>
       <c r="AA2" s="35"/>
     </row>
-    <row r="3" spans="1:27" ht="12" thickBot="1">
+    <row r="3" spans="1:27" ht="11.4" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -14348,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="22.5">
+    <row r="7" spans="1:27" ht="21.6">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>17</v>
@@ -14403,7 +17284,7 @@
       </c>
       <c r="B8" s="20">
         <f>I2/100</f>
-        <v>6.7007210584686616E-2</v>
+        <v>6.6983337662633868E-2</v>
       </c>
       <c r="C8" s="38">
         <f>I3/100</f>
@@ -14457,7 +17338,7 @@
       </c>
       <c r="B9" s="23">
         <f>STDEV(Q3:Q109)*SQRT(12)</f>
-        <v>2.7374855857228174E-2</v>
+        <v>2.737729528184607E-2</v>
       </c>
       <c r="C9" s="23">
         <f>STDEV(R3:R109)*SQRT(12)</f>
@@ -14643,7 +17524,7 @@
       </c>
       <c r="G13" s="1">
         <f>VLOOKUP($K$21,$P:$V,5,0)</f>
-        <v>17830.310623586873</v>
+        <v>17826.753809179616</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -14654,7 +17535,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" ref="L13:L21" si="2">VLOOKUP($K13,$P:$V,5,0)</f>
-        <v>17775.207480397639</v>
+        <v>17771.661658039691</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ref="M13:M21" si="3">VLOOKUP($K13,$P:$V,6,0)</f>
@@ -14719,7 +17600,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>17667.276322615151</v>
+        <v>17663.752030510102</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
@@ -14841,7 +17722,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="2"/>
-        <v>17667.276322615151</v>
+        <v>17663.752030510102</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
@@ -15129,7 +18010,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="2"/>
-        <v>17830.310623586873</v>
+        <v>17826.753809179616</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="3"/>
@@ -15362,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="22.5">
+    <row r="26" spans="1:25" ht="21.6">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
         <v>17</v>
@@ -15433,7 +18314,7 @@
       </c>
       <c r="B27" s="19">
         <f>B8/B9</f>
-        <v>2.4477648735086852</v>
+        <v>2.4466747709387726</v>
       </c>
       <c r="C27" s="37">
         <f>C8/C9</f>
@@ -15448,7 +18329,7 @@
       </c>
       <c r="L27" s="26">
         <f t="shared" si="6"/>
-        <v>1.9657720758851749E-2</v>
+        <v>1.9454318061712605E-2</v>
       </c>
       <c r="M27" s="26">
         <f t="shared" si="6"/>
@@ -15588,7 +18469,7 @@
       </c>
       <c r="L29" s="26">
         <f t="shared" si="6"/>
-        <v>2.3548831935432668E-2</v>
+        <v>2.3344653034188978E-2</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" si="6"/>
@@ -15643,7 +18524,7 @@
       </c>
       <c r="L30" s="26">
         <f>(L$21/L18)^(1/3)-1</f>
-        <v>3.6824904580594842E-2</v>
+        <v>3.6755957585805854E-2</v>
       </c>
       <c r="M30" s="26">
         <f>(M$21/M18)^(1/3)-1</f>
@@ -15692,7 +18573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="22.5">
+    <row r="31" spans="1:25" ht="21.6">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
         <v>17</v>
@@ -15708,7 +18589,7 @@
       </c>
       <c r="L31" s="26">
         <f>(L$21/L19)^(1/5)-1</f>
-        <v>4.8227832951297955E-2</v>
+        <v>4.8186009233615046E-2</v>
       </c>
       <c r="M31" s="26">
         <f>(M$21/M19)^(1/5)-1</f>
@@ -15778,7 +18659,7 @@
       </c>
       <c r="L32" s="26">
         <f>(L$21/L20)^(12/(COUNTA($P:$P)-2))-1</f>
-        <v>6.7007210584686616E-2</v>
+        <v>6.6983337662633868E-2</v>
       </c>
       <c r="M32" s="26">
         <f>(M$21/M20)^(12/(COUNTA($P:$P)-2))-1</f>
@@ -16310,7 +19191,7 @@
       </c>
       <c r="B40" s="42">
         <f t="shared" si="7"/>
-        <v>1.4188723392026148E-2</v>
+        <v>1.3986411657856523E-2</v>
       </c>
       <c r="C40" s="42">
         <f t="shared" si="7"/>
@@ -16571,7 +19452,7 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" si="8"/>
-        <v>17667.276322615151</v>
+        <v>17663.752030510102</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="9"/>
@@ -16629,7 +19510,7 @@
       </c>
       <c r="L45" s="1">
         <f t="shared" si="8"/>
-        <v>17830.310623586873</v>
+        <v>17826.753809179616</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="9"/>
@@ -17202,7 +20083,7 @@
       </c>
       <c r="L56" s="26">
         <f t="shared" si="12"/>
-        <v>1.4188723392026148E-2</v>
+        <v>1.3986411657856523E-2</v>
       </c>
       <c r="M56" s="26">
         <f t="shared" si="12"/>
@@ -19142,8 +22023,8 @@
         <f t="shared" si="15"/>
         <v>44165</v>
       </c>
-      <c r="Q105" s="9">
-        <v>2.5999999999999999E-3</v>
+      <c r="Q105" s="46">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="R105" s="9">
         <v>1.5127041435275768E-2</v>
@@ -19153,7 +22034,7 @@
       </c>
       <c r="T105" s="1">
         <f t="shared" si="17"/>
-        <v>17586.378979310324</v>
+        <v>17582.870824716407</v>
       </c>
       <c r="U105" s="1">
         <f t="shared" si="17"/>
@@ -19165,7 +22046,7 @@
       </c>
       <c r="W105" s="26">
         <f>T105/MAX(T$2:T105)-1</f>
-        <v>-4.6507330179998974E-3</v>
+        <v>-4.8492866319999051E-3</v>
       </c>
       <c r="X105" s="26">
         <f>U105/MAX(U$2:U105)-1</f>
@@ -19192,7 +22073,7 @@
       </c>
       <c r="T106" s="1">
         <f t="shared" si="17"/>
-        <v>17667.276322615151</v>
+        <v>17663.752030510102</v>
       </c>
       <c r="U106" s="1">
         <f t="shared" si="17"/>
@@ -19204,7 +22085,7 @@
       </c>
       <c r="W106" s="26">
         <f>T106/MAX(T$2:T106)-1</f>
-        <v>-7.2126389882742892E-5</v>
+        <v>-2.7159335050708222E-4</v>
       </c>
       <c r="X106" s="26">
         <f>U106/MAX(U$2:U106)-1</f>
@@ -19231,7 +22112,7 @@
       </c>
       <c r="T107" s="1">
         <f t="shared" si="17"/>
-        <v>17729.111789744304</v>
+        <v>17725.575162616889</v>
       </c>
       <c r="U107" s="1">
         <f t="shared" si="17"/>
@@ -19270,7 +22151,7 @@
       </c>
       <c r="T108" s="1">
         <f t="shared" si="17"/>
-        <v>17775.207480397639</v>
+        <v>17771.661658039691</v>
       </c>
       <c r="U108" s="1">
         <f t="shared" si="17"/>
@@ -19309,7 +22190,7 @@
       </c>
       <c r="T109" s="1">
         <f t="shared" si="17"/>
-        <v>17830.310623586873</v>
+        <v>17826.753809179616</v>
       </c>
       <c r="U109" s="1">
         <f t="shared" si="17"/>
@@ -19358,12 +22239,12 @@
       <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21241,7 +24122,7 @@
       </c>
       <c r="B105" s="50">
         <f>Institutional!T105</f>
-        <v>17586.378979310324</v>
+        <v>17582.870824716407</v>
       </c>
       <c r="C105" s="50">
         <f>Institutional!U105</f>
@@ -21259,7 +24140,7 @@
       </c>
       <c r="B106" s="50">
         <f>Institutional!T106</f>
-        <v>17667.276322615151</v>
+        <v>17663.752030510102</v>
       </c>
       <c r="C106" s="50">
         <f>Institutional!U106</f>
@@ -21277,7 +24158,7 @@
       </c>
       <c r="B107" s="50">
         <f>Institutional!T107</f>
-        <v>17729.111789744304</v>
+        <v>17725.575162616889</v>
       </c>
       <c r="C107" s="50">
         <f>Institutional!U107</f>
@@ -21295,7 +24176,7 @@
       </c>
       <c r="B108" s="50">
         <f>Institutional!T108</f>
-        <v>17775.207480397639</v>
+        <v>17771.661658039691</v>
       </c>
       <c r="C108" s="50">
         <f>Institutional!U108</f>
@@ -21313,7 +24194,7 @@
       </c>
       <c r="B109" s="50">
         <f>Institutional!T109</f>
-        <v>17830.310623586873</v>
+        <v>17826.753809179616</v>
       </c>
       <c r="C109" s="50">
         <f>Institutional!U109</f>
@@ -21340,11 +24221,11 @@
       <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="50"/>
-    <col min="9" max="9" width="14.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.109375" style="50"/>
+    <col min="9" max="9" width="14.6640625" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -21394,7 +24275,7 @@
       </c>
       <c r="D2" s="50">
         <f>Institutional!D2</f>
-        <v>1.9657720758851749</v>
+        <v>1.9454318061712605</v>
       </c>
       <c r="E2" s="50">
         <f>Institutional!E2</f>
@@ -21402,19 +24283,19 @@
       </c>
       <c r="F2" s="50">
         <f>Institutional!F2</f>
-        <v>2.3548831935432668</v>
+        <v>2.3344653034188978</v>
       </c>
       <c r="G2" s="50">
         <f>Institutional!G2</f>
-        <v>3.6824904580594842</v>
+        <v>3.6755957585805854</v>
       </c>
       <c r="H2" s="50">
         <f>Institutional!H2</f>
-        <v>4.8227832951297955</v>
+        <v>4.8186009233615046</v>
       </c>
       <c r="I2" s="50">
         <f>Institutional!I2</f>
-        <v>6.7007210584686616</v>
+        <v>6.6983337662633868</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -21518,13 +24399,13 @@
       <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21719,7 +24600,7 @@
       </c>
       <c r="B10" s="50">
         <f>Institutional!L56*100</f>
-        <v>1.4188723392026148</v>
+        <v>1.3986411657856523</v>
       </c>
       <c r="C10" s="50">
         <f>Institutional!M56*100</f>
@@ -21771,9 +24652,9 @@
       <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21799,7 +24680,7 @@
       </c>
       <c r="B2" s="50">
         <f>Institutional!B27</f>
-        <v>2.4477648735086852</v>
+        <v>2.4466747709387726</v>
       </c>
       <c r="C2" s="50">
         <f>Institutional!C27</f>
@@ -21869,13 +24750,13 @@
       <selection activeCell="A106" sqref="A106:D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21902,11 +24783,11 @@
     <row r="2" spans="1:6">
       <c r="A2" s="50">
         <f>Institutional!B8*100</f>
-        <v>6.7007210584686616</v>
+        <v>6.6983337662633868</v>
       </c>
       <c r="B2" s="50">
         <f>Institutional!B9*100</f>
-        <v>2.7374855857228173</v>
+        <v>2.737729528184607</v>
       </c>
       <c r="C2" s="50">
         <f>Institutional!C8*100</f>
